--- a/data/zenodo/trade/CHE_trd_elecsupply.xlsx
+++ b/data/zenodo/trade/CHE_trd_elecsupply.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/trade/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/trade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22E5C54-1042-444D-87AD-F7F507FAA2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD055C32-D50E-9142-9D7B-88A76F32802A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$520</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$521</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="186">
   <si>
     <t>Name:</t>
   </si>
@@ -588,6 +588,9 @@
   </si>
   <si>
     <t>Maximum energy production per capacity unit, per year.</t>
+  </si>
+  <si>
+    <t>enable_year</t>
   </si>
 </sst>
 </file>
@@ -1009,11 +1012,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L321"/>
+  <dimension ref="A1:L322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1148,17 +1151,17 @@
       <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>178</v>
+      <c r="C9" t="s">
+        <v>185</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
-      </c>
-      <c r="F9" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>1990</v>
+      </c>
+      <c r="H9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1169,7 +1172,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" t="s">
         <v>180</v>
@@ -1189,23 +1192,17 @@
         <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>180</v>
+      </c>
+      <c r="F11" t="s">
+        <v>175</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
-        <v>112</v>
-      </c>
-      <c r="J11" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1214,20 +1211,23 @@
       <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
-        <v>177</v>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="G12">
-        <v>31.54</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>183</v>
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
       </c>
       <c r="L12" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1237,23 +1237,20 @@
       <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
+      <c r="C13" t="s">
+        <v>177</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="G13">
-        <v>257.61448541000004</v>
+        <v>31.54</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
-      </c>
-      <c r="J13" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="L13" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1264,16 +1261,22 @@
         <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="G14">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I14" t="s">
-        <v>117</v>
+        <v>257.61448541000004</v>
+      </c>
+      <c r="H14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1284,16 +1287,13 @@
         <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="G15">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>118</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I15" t="s">
         <v>117</v>
@@ -1307,11 +1307,20 @@
         <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1321,23 +1330,11 @@
         <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-      <c r="H17" t="s">
-        <v>112</v>
-      </c>
-      <c r="J17" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1347,20 +1344,23 @@
         <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
-      </c>
-      <c r="F18" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>112</v>
       </c>
       <c r="J18" t="s">
         <v>110</v>
       </c>
+      <c r="L18" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1370,7 +1370,7 @@
         <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D19" t="s">
         <v>176</v>
@@ -1379,14 +1379,11 @@
         <v>175</v>
       </c>
       <c r="G19">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>110</v>
       </c>
-      <c r="L19" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1396,7 +1393,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D20" t="s">
         <v>176</v>
@@ -1422,7 +1419,7 @@
         <v>41</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D21" t="s">
         <v>176</v>
@@ -1431,11 +1428,14 @@
         <v>175</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J21" t="s">
         <v>110</v>
       </c>
+      <c r="L21" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -1444,20 +1444,17 @@
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="s">
-        <v>31</v>
+      <c r="C22" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22">
-        <v>1990</v>
+        <v>176</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
       </c>
       <c r="G22">
-        <v>6540</v>
-      </c>
-      <c r="H22" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>110</v>
@@ -1477,7 +1474,16 @@
         <v>18</v>
       </c>
       <c r="E23">
-        <v>1991</v>
+        <v>1990</v>
+      </c>
+      <c r="G23">
+        <v>6540</v>
+      </c>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1494,7 +1500,7 @@
         <v>18</v>
       </c>
       <c r="E24">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1511,7 +1517,7 @@
         <v>18</v>
       </c>
       <c r="E25">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1528,7 +1534,7 @@
         <v>18</v>
       </c>
       <c r="E26">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1545,7 +1551,7 @@
         <v>18</v>
       </c>
       <c r="E27">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1562,7 +1568,7 @@
         <v>18</v>
       </c>
       <c r="E28">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1579,7 +1585,7 @@
         <v>18</v>
       </c>
       <c r="E29">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1596,7 +1602,7 @@
         <v>18</v>
       </c>
       <c r="E30">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1613,7 +1619,7 @@
         <v>18</v>
       </c>
       <c r="E31">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1630,7 +1636,7 @@
         <v>18</v>
       </c>
       <c r="E32">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1647,7 +1653,7 @@
         <v>18</v>
       </c>
       <c r="E33">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1664,7 +1670,7 @@
         <v>18</v>
       </c>
       <c r="E34">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1681,7 +1687,7 @@
         <v>18</v>
       </c>
       <c r="E35">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1698,7 +1704,7 @@
         <v>18</v>
       </c>
       <c r="E36">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1715,7 +1721,7 @@
         <v>18</v>
       </c>
       <c r="E37">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1732,7 +1738,7 @@
         <v>18</v>
       </c>
       <c r="E38">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1749,7 +1755,7 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1766,7 +1772,7 @@
         <v>18</v>
       </c>
       <c r="E40">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1783,22 +1789,7 @@
         <v>18</v>
       </c>
       <c r="E41">
-        <v>2009</v>
-      </c>
-      <c r="G41">
-        <v>6894</v>
-      </c>
-      <c r="H41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J41" t="s">
-        <v>44</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L41" t="s">
-        <v>46</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1815,10 +1806,10 @@
         <v>18</v>
       </c>
       <c r="E42">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G42">
-        <v>6971</v>
+        <v>6894</v>
       </c>
       <c r="H42" t="s">
         <v>43</v>
@@ -1847,10 +1838,10 @@
         <v>18</v>
       </c>
       <c r="E43">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G43">
-        <v>6977</v>
+        <v>6971</v>
       </c>
       <c r="H43" t="s">
         <v>43</v>
@@ -1879,7 +1870,13 @@
         <v>18</v>
       </c>
       <c r="E44">
-        <v>2012</v>
+        <v>2011</v>
+      </c>
+      <c r="G44">
+        <v>6977</v>
+      </c>
+      <c r="H44" t="s">
+        <v>43</v>
       </c>
       <c r="J44" t="s">
         <v>44</v>
@@ -1905,7 +1902,16 @@
         <v>18</v>
       </c>
       <c r="E45">
-        <v>2013</v>
+        <v>2012</v>
+      </c>
+      <c r="J45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L45" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -1922,7 +1928,7 @@
         <v>18</v>
       </c>
       <c r="E46">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -1939,22 +1945,7 @@
         <v>18</v>
       </c>
       <c r="E47">
-        <v>2015</v>
-      </c>
-      <c r="G47">
-        <v>7233</v>
-      </c>
-      <c r="H47" t="s">
-        <v>43</v>
-      </c>
-      <c r="J47" t="s">
-        <v>44</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L47" t="s">
-        <v>46</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -1971,7 +1962,22 @@
         <v>18</v>
       </c>
       <c r="E48">
-        <v>2016</v>
+        <v>2015</v>
+      </c>
+      <c r="G48">
+        <v>7233</v>
+      </c>
+      <c r="H48" t="s">
+        <v>43</v>
+      </c>
+      <c r="J48" t="s">
+        <v>44</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L48" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -1988,7 +1994,7 @@
         <v>18</v>
       </c>
       <c r="E49">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2005,7 +2011,7 @@
         <v>18</v>
       </c>
       <c r="E50">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2022,22 +2028,7 @@
         <v>18</v>
       </c>
       <c r="E51">
-        <v>2019</v>
-      </c>
-      <c r="G51">
-        <v>8446</v>
-      </c>
-      <c r="H51" t="s">
-        <v>43</v>
-      </c>
-      <c r="J51" t="s">
-        <v>44</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L51" t="s">
-        <v>46</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2048,28 +2039,28 @@
         <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
       </c>
       <c r="E52">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G52">
-        <v>89670</v>
+        <v>8446</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J52" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L52" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2086,16 +2077,16 @@
         <v>18</v>
       </c>
       <c r="E53">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G53">
-        <v>96480</v>
+        <v>89670</v>
       </c>
       <c r="H53" t="s">
         <v>47</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>48</v>
@@ -2118,16 +2109,16 @@
         <v>18</v>
       </c>
       <c r="E54">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G54">
-        <v>93770</v>
+        <v>96480</v>
       </c>
       <c r="H54" t="s">
         <v>47</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>48</v>
@@ -2150,16 +2141,16 @@
         <v>18</v>
       </c>
       <c r="E55">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G55">
-        <v>111790</v>
+        <v>93770</v>
       </c>
       <c r="H55" t="s">
         <v>47</v>
       </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>48</v>
@@ -2182,16 +2173,16 @@
         <v>18</v>
       </c>
       <c r="E56">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G56">
-        <v>124440</v>
+        <v>111790</v>
       </c>
       <c r="H56" t="s">
         <v>47</v>
       </c>
       <c r="J56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>48</v>
@@ -2214,16 +2205,16 @@
         <v>18</v>
       </c>
       <c r="E57">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G57">
-        <v>130390</v>
+        <v>124440</v>
       </c>
       <c r="H57" t="s">
         <v>47</v>
       </c>
       <c r="J57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>48</v>
@@ -2246,16 +2237,16 @@
         <v>18</v>
       </c>
       <c r="E58">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G58">
-        <v>123950</v>
+        <v>130390</v>
       </c>
       <c r="H58" t="s">
         <v>47</v>
       </c>
       <c r="J58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>48</v>
@@ -2278,16 +2269,16 @@
         <v>18</v>
       </c>
       <c r="E59">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G59">
-        <v>134670</v>
+        <v>123950</v>
       </c>
       <c r="H59" t="s">
         <v>47</v>
       </c>
       <c r="J59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>48</v>
@@ -2310,16 +2301,16 @@
         <v>18</v>
       </c>
       <c r="E60">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G60">
-        <v>156140</v>
+        <v>134670</v>
       </c>
       <c r="H60" t="s">
         <v>47</v>
       </c>
       <c r="J60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>48</v>
@@ -2342,16 +2333,16 @@
         <v>18</v>
       </c>
       <c r="E61">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G61">
-        <v>170250</v>
+        <v>156140</v>
       </c>
       <c r="H61" t="s">
         <v>47</v>
       </c>
       <c r="J61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>48</v>
@@ -2374,16 +2365,16 @@
         <v>18</v>
       </c>
       <c r="E62">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G62">
-        <v>113040</v>
+        <v>170250</v>
       </c>
       <c r="H62" t="s">
         <v>47</v>
       </c>
       <c r="J62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>48</v>
@@ -2406,16 +2397,16 @@
         <v>18</v>
       </c>
       <c r="E63">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G63">
-        <v>124340</v>
+        <v>113040</v>
       </c>
       <c r="H63" t="s">
         <v>47</v>
       </c>
       <c r="J63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>48</v>
@@ -2438,16 +2429,16 @@
         <v>18</v>
       </c>
       <c r="E64">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G64">
-        <v>116310</v>
+        <v>124340</v>
       </c>
       <c r="H64" t="s">
         <v>47</v>
       </c>
       <c r="J64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>48</v>
@@ -2470,16 +2461,16 @@
         <v>18</v>
       </c>
       <c r="E65">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G65">
-        <v>119510</v>
+        <v>116310</v>
       </c>
       <c r="H65" t="s">
         <v>47</v>
       </c>
       <c r="J65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>48</v>
@@ -2502,16 +2493,16 @@
         <v>18</v>
       </c>
       <c r="E66">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G66">
-        <v>99930</v>
+        <v>119510</v>
       </c>
       <c r="H66" t="s">
         <v>47</v>
       </c>
       <c r="J66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>48</v>
@@ -2534,16 +2525,16 @@
         <v>18</v>
       </c>
       <c r="E67">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G67">
-        <v>115190</v>
+        <v>99930</v>
       </c>
       <c r="H67" t="s">
         <v>47</v>
       </c>
       <c r="J67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>48</v>
@@ -2566,16 +2557,16 @@
         <v>18</v>
       </c>
       <c r="E68">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G68">
-        <v>111960</v>
+        <v>115190</v>
       </c>
       <c r="H68" t="s">
         <v>47</v>
       </c>
       <c r="J68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>48</v>
@@ -2598,16 +2589,16 @@
         <v>18</v>
       </c>
       <c r="E69">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G69">
-        <v>132770</v>
+        <v>111960</v>
       </c>
       <c r="H69" t="s">
         <v>47</v>
       </c>
       <c r="J69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>48</v>
@@ -2630,16 +2621,16 @@
         <v>18</v>
       </c>
       <c r="E70">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G70">
-        <v>117850</v>
+        <v>132770</v>
       </c>
       <c r="H70" t="s">
         <v>47</v>
       </c>
       <c r="J70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>48</v>
@@ -2662,16 +2653,16 @@
         <v>18</v>
       </c>
       <c r="E71">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G71">
-        <v>120690</v>
+        <v>117850</v>
       </c>
       <c r="H71" t="s">
         <v>47</v>
       </c>
       <c r="J71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>48</v>
@@ -2694,16 +2685,16 @@
         <v>18</v>
       </c>
       <c r="E72">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G72">
-        <v>118370</v>
+        <v>120690</v>
       </c>
       <c r="H72" t="s">
         <v>47</v>
       </c>
       <c r="J72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>48</v>
@@ -2726,16 +2717,16 @@
         <v>18</v>
       </c>
       <c r="E73">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G73">
-        <v>116050</v>
+        <v>118370</v>
       </c>
       <c r="H73" t="s">
         <v>47</v>
       </c>
       <c r="J73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>48</v>
@@ -2758,16 +2749,16 @@
         <v>18</v>
       </c>
       <c r="E74">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G74">
-        <v>121500</v>
+        <v>116050</v>
       </c>
       <c r="H74" t="s">
         <v>47</v>
       </c>
       <c r="J74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>48</v>
@@ -2790,16 +2781,16 @@
         <v>18</v>
       </c>
       <c r="E75">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G75">
-        <v>116170</v>
+        <v>121500</v>
       </c>
       <c r="H75" t="s">
         <v>47</v>
       </c>
       <c r="J75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>48</v>
@@ -2822,16 +2813,16 @@
         <v>18</v>
       </c>
       <c r="E76">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G76">
-        <v>122480</v>
+        <v>116170</v>
       </c>
       <c r="H76" t="s">
         <v>47</v>
       </c>
       <c r="J76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>48</v>
@@ -2854,16 +2845,16 @@
         <v>18</v>
       </c>
       <c r="E77">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G77">
-        <v>126240</v>
+        <v>122480</v>
       </c>
       <c r="H77" t="s">
         <v>47</v>
       </c>
       <c r="J77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>48</v>
@@ -2886,16 +2877,16 @@
         <v>18</v>
       </c>
       <c r="E78">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G78">
-        <v>108620</v>
+        <v>126240</v>
       </c>
       <c r="H78" t="s">
         <v>47</v>
       </c>
       <c r="J78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>48</v>
@@ -2918,16 +2909,16 @@
         <v>18</v>
       </c>
       <c r="E79">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G79">
-        <v>111410</v>
+        <v>108620</v>
       </c>
       <c r="H79" t="s">
         <v>47</v>
       </c>
       <c r="J79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>48</v>
@@ -2950,16 +2941,16 @@
         <v>18</v>
       </c>
       <c r="E80">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G80">
-        <v>117390</v>
+        <v>111410</v>
       </c>
       <c r="H80" t="s">
         <v>47</v>
       </c>
       <c r="J80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>48</v>
@@ -2982,16 +2973,16 @@
         <v>18</v>
       </c>
       <c r="E81">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G81">
-        <v>128750</v>
+        <v>117390</v>
       </c>
       <c r="H81" t="s">
         <v>47</v>
       </c>
       <c r="J81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>48</v>
@@ -3008,28 +2999,28 @@
         <v>41</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
       </c>
       <c r="E82">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G82">
-        <v>82080</v>
+        <v>128750</v>
       </c>
       <c r="H82" t="s">
         <v>47</v>
       </c>
       <c r="J82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>48</v>
       </c>
       <c r="L82" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3046,16 +3037,16 @@
         <v>18</v>
       </c>
       <c r="E83">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G83">
-        <v>86420</v>
+        <v>82080</v>
       </c>
       <c r="H83" t="s">
         <v>47</v>
       </c>
       <c r="J83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>48</v>
@@ -3078,16 +3069,16 @@
         <v>18</v>
       </c>
       <c r="E84">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G84">
-        <v>78330</v>
+        <v>86420</v>
       </c>
       <c r="H84" t="s">
         <v>47</v>
       </c>
       <c r="J84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>48</v>
@@ -3110,16 +3101,16 @@
         <v>18</v>
       </c>
       <c r="E85">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G85">
-        <v>85870</v>
+        <v>78330</v>
       </c>
       <c r="H85" t="s">
         <v>47</v>
       </c>
       <c r="J85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>48</v>
@@ -3142,16 +3133,16 @@
         <v>18</v>
       </c>
       <c r="E86">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G86">
-        <v>81800</v>
+        <v>85870</v>
       </c>
       <c r="H86" t="s">
         <v>47</v>
       </c>
       <c r="J86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>48</v>
@@ -3174,16 +3165,16 @@
         <v>18</v>
       </c>
       <c r="E87">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G87">
-        <v>104210</v>
+        <v>81800</v>
       </c>
       <c r="H87" t="s">
         <v>47</v>
       </c>
       <c r="J87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>48</v>
@@ -3206,16 +3197,16 @@
         <v>18</v>
       </c>
       <c r="E88">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G88">
-        <v>120550</v>
+        <v>104210</v>
       </c>
       <c r="H88" t="s">
         <v>47</v>
       </c>
       <c r="J88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>48</v>
@@ -3238,16 +3229,16 @@
         <v>18</v>
       </c>
       <c r="E89">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G89">
-        <v>110360</v>
+        <v>120550</v>
       </c>
       <c r="H89" t="s">
         <v>47</v>
       </c>
       <c r="J89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>48</v>
@@ -3270,16 +3261,16 @@
         <v>18</v>
       </c>
       <c r="E90">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G90">
-        <v>134710</v>
+        <v>110360</v>
       </c>
       <c r="H90" t="s">
         <v>47</v>
       </c>
       <c r="J90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>48</v>
@@ -3302,16 +3293,16 @@
         <v>18</v>
       </c>
       <c r="E91">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G91">
-        <v>133430</v>
+        <v>134710</v>
       </c>
       <c r="H91" t="s">
         <v>47</v>
       </c>
       <c r="J91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>48</v>
@@ -3334,16 +3325,16 @@
         <v>18</v>
       </c>
       <c r="E92">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G92">
-        <v>87590</v>
+        <v>133430</v>
       </c>
       <c r="H92" t="s">
         <v>47</v>
       </c>
       <c r="J92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>48</v>
@@ -3366,16 +3357,16 @@
         <v>18</v>
       </c>
       <c r="E93">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G93">
-        <v>86750</v>
+        <v>87590</v>
       </c>
       <c r="H93" t="s">
         <v>47</v>
       </c>
       <c r="J93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>48</v>
@@ -3398,16 +3389,16 @@
         <v>18</v>
       </c>
       <c r="E94">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G94">
-        <v>100080</v>
+        <v>86750</v>
       </c>
       <c r="H94" t="s">
         <v>47</v>
       </c>
       <c r="J94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>48</v>
@@ -3430,16 +3421,16 @@
         <v>18</v>
       </c>
       <c r="E95">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G95">
-        <v>108300</v>
+        <v>100080</v>
       </c>
       <c r="H95" t="s">
         <v>47</v>
       </c>
       <c r="J95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>48</v>
@@ -3462,16 +3453,16 @@
         <v>18</v>
       </c>
       <c r="E96">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G96">
-        <v>97400</v>
+        <v>108300</v>
       </c>
       <c r="H96" t="s">
         <v>47</v>
       </c>
       <c r="J96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>48</v>
@@ -3494,16 +3485,16 @@
         <v>18</v>
       </c>
       <c r="E97">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G97">
-        <v>138050</v>
+        <v>97400</v>
       </c>
       <c r="H97" t="s">
         <v>47</v>
       </c>
       <c r="J97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>48</v>
@@ -3526,16 +3517,16 @@
         <v>18</v>
       </c>
       <c r="E98">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G98">
-        <v>121690</v>
+        <v>138050</v>
       </c>
       <c r="H98" t="s">
         <v>47</v>
       </c>
       <c r="J98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>48</v>
@@ -3558,16 +3549,16 @@
         <v>18</v>
       </c>
       <c r="E99">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G99">
-        <v>125340</v>
+        <v>121690</v>
       </c>
       <c r="H99" t="s">
         <v>47</v>
       </c>
       <c r="J99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>48</v>
@@ -3590,16 +3581,16 @@
         <v>18</v>
       </c>
       <c r="E100">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G100">
-        <v>113760</v>
+        <v>125340</v>
       </c>
       <c r="H100" t="s">
         <v>47</v>
       </c>
       <c r="J100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>48</v>
@@ -3622,16 +3613,16 @@
         <v>18</v>
       </c>
       <c r="E101">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G101">
-        <v>112920</v>
+        <v>113760</v>
       </c>
       <c r="H101" t="s">
         <v>47</v>
       </c>
       <c r="J101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>48</v>
@@ -3654,16 +3645,16 @@
         <v>18</v>
       </c>
       <c r="E102">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G102">
-        <v>120240</v>
+        <v>112920</v>
       </c>
       <c r="H102" t="s">
         <v>47</v>
       </c>
       <c r="J102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>48</v>
@@ -3686,16 +3677,16 @@
         <v>18</v>
       </c>
       <c r="E103">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G103">
-        <v>125370</v>
+        <v>120240</v>
       </c>
       <c r="H103" t="s">
         <v>47</v>
       </c>
       <c r="J103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>48</v>
@@ -3718,16 +3709,16 @@
         <v>18</v>
       </c>
       <c r="E104">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G104">
-        <v>113580</v>
+        <v>125370</v>
       </c>
       <c r="H104" t="s">
         <v>47</v>
       </c>
       <c r="J104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>48</v>
@@ -3750,16 +3741,16 @@
         <v>18</v>
       </c>
       <c r="E105">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G105">
-        <v>107550</v>
+        <v>113580</v>
       </c>
       <c r="H105" t="s">
         <v>47</v>
       </c>
       <c r="J105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>48</v>
@@ -3782,16 +3773,16 @@
         <v>18</v>
       </c>
       <c r="E106">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G106">
-        <v>102710</v>
+        <v>107550</v>
       </c>
       <c r="H106" t="s">
         <v>47</v>
       </c>
       <c r="J106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>48</v>
@@ -3814,16 +3805,16 @@
         <v>18</v>
       </c>
       <c r="E107">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G107">
-        <v>122520</v>
+        <v>102710</v>
       </c>
       <c r="H107" t="s">
         <v>47</v>
       </c>
       <c r="J107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>48</v>
@@ -3846,16 +3837,16 @@
         <v>18</v>
       </c>
       <c r="E108">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G108">
-        <v>122750</v>
+        <v>122520</v>
       </c>
       <c r="H108" t="s">
         <v>47</v>
       </c>
       <c r="J108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>48</v>
@@ -3878,16 +3869,16 @@
         <v>18</v>
       </c>
       <c r="E109">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G109">
-        <v>131390</v>
+        <v>122750</v>
       </c>
       <c r="H109" t="s">
         <v>47</v>
       </c>
       <c r="J109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>48</v>
@@ -3910,16 +3901,16 @@
         <v>18</v>
       </c>
       <c r="E110">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G110">
-        <v>111670</v>
+        <v>131390</v>
       </c>
       <c r="H110" t="s">
         <v>47</v>
       </c>
       <c r="J110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>48</v>
@@ -3942,16 +3933,16 @@
         <v>18</v>
       </c>
       <c r="E111">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G111">
-        <v>106220</v>
+        <v>111670</v>
       </c>
       <c r="H111" t="s">
         <v>47</v>
       </c>
       <c r="J111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>48</v>
@@ -3968,28 +3959,31 @@
         <v>41</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D112" t="s">
         <v>18</v>
       </c>
       <c r="E112">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>106220</v>
       </c>
       <c r="H112" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J112" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="L112" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>16</v>
       </c>
@@ -4003,7 +3997,7 @@
         <v>18</v>
       </c>
       <c r="E113">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -4011,8 +4005,14 @@
       <c r="H113" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J113" t="s">
+        <v>110</v>
+      </c>
+      <c r="L113" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>18</v>
       </c>
       <c r="E114">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -4035,7 +4035,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>18</v>
       </c>
       <c r="E115">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>18</v>
       </c>
       <c r="E116">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4081,7 +4081,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>18</v>
       </c>
       <c r="E117">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>16</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>18</v>
       </c>
       <c r="E118">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4127,7 +4127,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>16</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>18</v>
       </c>
       <c r="E119">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>18</v>
       </c>
       <c r="E120">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>16</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>18</v>
       </c>
       <c r="E121">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4196,7 +4196,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>16</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>18</v>
       </c>
       <c r="E122">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>16</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>18</v>
       </c>
       <c r="E123">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4242,7 +4242,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>16</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>18</v>
       </c>
       <c r="E124">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4265,7 +4265,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>16</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>18</v>
       </c>
       <c r="E125">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4288,7 +4288,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>18</v>
       </c>
       <c r="E126">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>16</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>18</v>
       </c>
       <c r="E127">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4334,7 +4334,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>16</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>18</v>
       </c>
       <c r="E128">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>18</v>
       </c>
       <c r="E129">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4394,7 +4394,7 @@
         <v>18</v>
       </c>
       <c r="E130">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4417,21 +4417,14 @@
         <v>18</v>
       </c>
       <c r="E131">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G131">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="H131" t="s">
         <v>43</v>
       </c>
-      <c r="J131" t="s">
-        <v>110</v>
-      </c>
-      <c r="K131" s="2"/>
-      <c r="L131" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
@@ -4447,10 +4440,10 @@
         <v>18</v>
       </c>
       <c r="E132">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G132">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="H132" t="s">
         <v>43</v>
@@ -4477,10 +4470,10 @@
         <v>18</v>
       </c>
       <c r="E133">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G133">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="H133" t="s">
         <v>43</v>
@@ -4507,10 +4500,10 @@
         <v>18</v>
       </c>
       <c r="E134">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H134" t="s">
         <v>43</v>
@@ -4537,7 +4530,7 @@
         <v>18</v>
       </c>
       <c r="E135">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4545,6 +4538,13 @@
       <c r="H135" t="s">
         <v>43</v>
       </c>
+      <c r="J135" t="s">
+        <v>110</v>
+      </c>
+      <c r="K135" s="2"/>
+      <c r="L135" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
@@ -4560,7 +4560,7 @@
         <v>18</v>
       </c>
       <c r="E136">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4583,21 +4583,14 @@
         <v>18</v>
       </c>
       <c r="E137">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G137">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="H137" t="s">
         <v>43</v>
       </c>
-      <c r="J137" t="s">
-        <v>110</v>
-      </c>
-      <c r="K137" s="2"/>
-      <c r="L137" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
@@ -4613,14 +4606,21 @@
         <v>18</v>
       </c>
       <c r="E138">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="H138" t="s">
         <v>43</v>
       </c>
+      <c r="J138" t="s">
+        <v>110</v>
+      </c>
+      <c r="K138" s="2"/>
+      <c r="L138" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
@@ -4636,7 +4636,7 @@
         <v>18</v>
       </c>
       <c r="E139">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -4659,7 +4659,7 @@
         <v>18</v>
       </c>
       <c r="E140">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -4682,21 +4682,14 @@
         <v>18</v>
       </c>
       <c r="E141">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G141">
-        <v>1213</v>
+        <v>0</v>
       </c>
       <c r="H141" t="s">
         <v>43</v>
       </c>
-      <c r="J141" t="s">
-        <v>110</v>
-      </c>
-      <c r="K141" s="2"/>
-      <c r="L141" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
@@ -4706,13 +4699,26 @@
         <v>41</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D142" t="s">
         <v>18</v>
       </c>
       <c r="E142">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G142">
+        <v>1213</v>
+      </c>
+      <c r="H142" t="s">
+        <v>43</v>
+      </c>
+      <c r="J142" t="s">
+        <v>110</v>
+      </c>
+      <c r="K142" s="2"/>
+      <c r="L142" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -4729,7 +4735,7 @@
         <v>18</v>
       </c>
       <c r="E143">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -4746,7 +4752,7 @@
         <v>18</v>
       </c>
       <c r="E144">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -4763,7 +4769,7 @@
         <v>18</v>
       </c>
       <c r="E145">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -4780,7 +4786,7 @@
         <v>18</v>
       </c>
       <c r="E146">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -4797,7 +4803,7 @@
         <v>18</v>
       </c>
       <c r="E147">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -4814,7 +4820,7 @@
         <v>18</v>
       </c>
       <c r="E148">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -4831,7 +4837,7 @@
         <v>18</v>
       </c>
       <c r="E149">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -4848,7 +4854,7 @@
         <v>18</v>
       </c>
       <c r="E150">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -4865,7 +4871,7 @@
         <v>18</v>
       </c>
       <c r="E151">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -4882,7 +4888,7 @@
         <v>18</v>
       </c>
       <c r="E152">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -4899,7 +4905,7 @@
         <v>18</v>
       </c>
       <c r="E153">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -4916,7 +4922,7 @@
         <v>18</v>
       </c>
       <c r="E154">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -4933,7 +4939,7 @@
         <v>18</v>
       </c>
       <c r="E155">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -4950,7 +4956,7 @@
         <v>18</v>
       </c>
       <c r="E156">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -4967,7 +4973,7 @@
         <v>18</v>
       </c>
       <c r="E157">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -4984,7 +4990,7 @@
         <v>18</v>
       </c>
       <c r="E158">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -5001,7 +5007,7 @@
         <v>18</v>
       </c>
       <c r="E159">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -5018,7 +5024,7 @@
         <v>18</v>
       </c>
       <c r="E160">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -5035,7 +5041,7 @@
         <v>18</v>
       </c>
       <c r="E161">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -5052,7 +5058,7 @@
         <v>18</v>
       </c>
       <c r="E162">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -5069,7 +5075,7 @@
         <v>18</v>
       </c>
       <c r="E163">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -5086,7 +5092,7 @@
         <v>18</v>
       </c>
       <c r="E164">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -5103,16 +5109,7 @@
         <v>18</v>
       </c>
       <c r="E165">
-        <v>2013</v>
-      </c>
-      <c r="G165">
-        <v>3.2</v>
-      </c>
-      <c r="H165" t="s">
-        <v>120</v>
-      </c>
-      <c r="I165" t="s">
-        <v>117</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -5129,7 +5126,16 @@
         <v>18</v>
       </c>
       <c r="E166">
-        <v>2014</v>
+        <v>2013</v>
+      </c>
+      <c r="G166">
+        <v>3.2</v>
+      </c>
+      <c r="H166" t="s">
+        <v>120</v>
+      </c>
+      <c r="I166" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -5146,7 +5152,7 @@
         <v>18</v>
       </c>
       <c r="E167">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -5163,7 +5169,7 @@
         <v>18</v>
       </c>
       <c r="E168">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -5180,7 +5186,7 @@
         <v>18</v>
       </c>
       <c r="E169">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -5197,7 +5203,7 @@
         <v>18</v>
       </c>
       <c r="E170">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -5214,7 +5220,7 @@
         <v>18</v>
       </c>
       <c r="E171">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -5225,19 +5231,13 @@
         <v>41</v>
       </c>
       <c r="C172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D172" t="s">
         <v>18</v>
       </c>
       <c r="E172">
-        <v>1990</v>
-      </c>
-      <c r="G172">
-        <v>37.762500000000003</v>
-      </c>
-      <c r="H172" t="s">
-        <v>121</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -5254,13 +5254,13 @@
         <v>18</v>
       </c>
       <c r="E173">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G173">
         <v>37.762500000000003</v>
       </c>
       <c r="H173" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -5277,13 +5277,13 @@
         <v>18</v>
       </c>
       <c r="E174">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G174">
-        <v>39.137500000000003</v>
+        <v>37.762500000000003</v>
       </c>
       <c r="H174" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -5300,13 +5300,13 @@
         <v>18</v>
       </c>
       <c r="E175">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G175">
-        <v>38.424999999999997</v>
+        <v>39.137500000000003</v>
       </c>
       <c r="H175" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -5323,13 +5323,13 @@
         <v>18</v>
       </c>
       <c r="E176">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G176">
-        <v>38.024999999999999</v>
+        <v>38.424999999999997</v>
       </c>
       <c r="H176" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -5346,13 +5346,13 @@
         <v>18</v>
       </c>
       <c r="E177">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G177">
-        <v>37.9375</v>
+        <v>38.024999999999999</v>
       </c>
       <c r="H177" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -5369,13 +5369,13 @@
         <v>18</v>
       </c>
       <c r="E178">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G178">
-        <v>37.6</v>
+        <v>37.9375</v>
       </c>
       <c r="H178" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -5392,13 +5392,13 @@
         <v>18</v>
       </c>
       <c r="E179">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G179">
-        <v>36.975000000000001</v>
+        <v>37.6</v>
       </c>
       <c r="H179" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -5415,13 +5415,13 @@
         <v>18</v>
       </c>
       <c r="E180">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G180">
-        <v>36.274999999999999</v>
+        <v>36.975000000000001</v>
       </c>
       <c r="H180" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -5438,13 +5438,13 @@
         <v>18</v>
       </c>
       <c r="E181">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G181">
-        <v>34.787500000000001</v>
+        <v>36.274999999999999</v>
       </c>
       <c r="H181" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -5461,13 +5461,13 @@
         <v>18</v>
       </c>
       <c r="E182">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G182">
-        <v>33.200000000000003</v>
+        <v>34.787500000000001</v>
       </c>
       <c r="H182" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -5484,13 +5484,13 @@
         <v>18</v>
       </c>
       <c r="E183">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G183">
-        <v>35.299999999999997</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="H183" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -5507,13 +5507,13 @@
         <v>18</v>
       </c>
       <c r="E184">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G184">
-        <v>32.824310609999998</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="H184" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -5530,13 +5530,13 @@
         <v>18</v>
       </c>
       <c r="E185">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G185">
-        <v>33.427702089999997</v>
+        <v>32.824310609999998</v>
       </c>
       <c r="H185" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -5553,13 +5553,13 @@
         <v>18</v>
       </c>
       <c r="E186">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G186">
-        <v>35.025917569999997</v>
+        <v>33.427702089999997</v>
       </c>
       <c r="H186" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -5576,13 +5576,13 @@
         <v>18</v>
       </c>
       <c r="E187">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G187">
-        <v>47.12493869</v>
+        <v>35.025917569999997</v>
       </c>
       <c r="H187" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -5599,13 +5599,13 @@
         <v>18</v>
       </c>
       <c r="E188">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G188">
-        <v>59.819774850000002</v>
+        <v>47.12493869</v>
       </c>
       <c r="H188" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -5622,13 +5622,13 @@
         <v>18</v>
       </c>
       <c r="E189">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G189">
-        <v>59.752091729999997</v>
+        <v>59.819774850000002</v>
       </c>
       <c r="H189" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -5645,13 +5645,13 @@
         <v>18</v>
       </c>
       <c r="E190">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G190">
-        <v>66.958622610000006</v>
+        <v>59.752091729999997</v>
       </c>
       <c r="H190" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -5668,13 +5668,13 @@
         <v>18</v>
       </c>
       <c r="E191">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G191">
-        <v>61.050466499999999</v>
+        <v>66.958622610000006</v>
       </c>
       <c r="H191" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -5691,16 +5691,16 @@
         <v>18</v>
       </c>
       <c r="E192">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G192">
-        <v>56.049325670000002</v>
+        <v>61.050466499999999</v>
       </c>
       <c r="H192" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>16</v>
       </c>
@@ -5714,16 +5714,16 @@
         <v>18</v>
       </c>
       <c r="E193">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G193">
-        <v>56.165710709999999</v>
+        <v>56.049325670000002</v>
       </c>
       <c r="H193" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>16</v>
       </c>
@@ -5737,16 +5737,16 @@
         <v>18</v>
       </c>
       <c r="E194">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G194">
-        <v>60.639359579999997</v>
+        <v>56.165710709999999</v>
       </c>
       <c r="H194" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>16</v>
       </c>
@@ -5760,16 +5760,16 @@
         <v>18</v>
       </c>
       <c r="E195">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G195">
-        <v>57.100518540000003</v>
+        <v>60.639359579999997</v>
       </c>
       <c r="H195" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>16</v>
       </c>
@@ -5783,16 +5783,16 @@
         <v>18</v>
       </c>
       <c r="E196">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G196">
-        <v>49.003774999999997</v>
+        <v>57.100518540000003</v>
       </c>
       <c r="H196" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>16</v>
       </c>
@@ -5806,16 +5806,16 @@
         <v>18</v>
       </c>
       <c r="E197">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G197">
-        <v>42.610874199999998</v>
+        <v>49.003774999999997</v>
       </c>
       <c r="H197" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>16</v>
       </c>
@@ -5829,16 +5829,16 @@
         <v>18</v>
       </c>
       <c r="E198">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G198">
-        <v>40.431049049999999</v>
+        <v>42.610874199999998</v>
       </c>
       <c r="H198" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>16</v>
       </c>
@@ -5852,16 +5852,16 @@
         <v>18</v>
       </c>
       <c r="E199">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G199">
-        <v>31.887499999999999</v>
+        <v>40.431049049999999</v>
       </c>
       <c r="H199" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>16</v>
       </c>
@@ -5875,16 +5875,16 @@
         <v>18</v>
       </c>
       <c r="E200">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G200">
-        <v>32.875</v>
+        <v>31.887499999999999</v>
       </c>
       <c r="H200" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>16</v>
       </c>
@@ -5898,33 +5898,39 @@
         <v>18</v>
       </c>
       <c r="E201">
+        <v>2018</v>
+      </c>
+      <c r="G201">
+        <v>32.875</v>
+      </c>
+      <c r="H201" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>16</v>
+      </c>
+      <c r="B202" t="s">
+        <v>41</v>
+      </c>
+      <c r="C202" t="s">
+        <v>36</v>
+      </c>
+      <c r="D202" t="s">
+        <v>18</v>
+      </c>
+      <c r="E202">
         <v>2019</v>
       </c>
-      <c r="G201">
+      <c r="G202">
         <v>37.75</v>
       </c>
-      <c r="H201" t="s">
+      <c r="H202" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>16</v>
-      </c>
-      <c r="B202" t="s">
-        <v>41</v>
-      </c>
-      <c r="C202" t="s">
-        <v>37</v>
-      </c>
-      <c r="D202" t="s">
-        <v>18</v>
-      </c>
-      <c r="E202">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>16</v>
       </c>
@@ -5938,10 +5944,10 @@
         <v>18</v>
       </c>
       <c r="E203">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>16</v>
       </c>
@@ -5955,10 +5961,10 @@
         <v>18</v>
       </c>
       <c r="E204">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>16</v>
       </c>
@@ -5972,10 +5978,10 @@
         <v>18</v>
       </c>
       <c r="E205">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>16</v>
       </c>
@@ -5989,10 +5995,10 @@
         <v>18</v>
       </c>
       <c r="E206">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>16</v>
       </c>
@@ -6006,10 +6012,10 @@
         <v>18</v>
       </c>
       <c r="E207">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>16</v>
       </c>
@@ -6023,19 +6029,10 @@
         <v>18</v>
       </c>
       <c r="E208">
-        <v>1996</v>
-      </c>
-      <c r="G208">
-        <v>300</v>
-      </c>
-      <c r="H208" t="s">
-        <v>151</v>
-      </c>
-      <c r="I208" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>16</v>
       </c>
@@ -6049,10 +6046,19 @@
         <v>18</v>
       </c>
       <c r="E209">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1996</v>
+      </c>
+      <c r="G209">
+        <v>300</v>
+      </c>
+      <c r="H209" t="s">
+        <v>151</v>
+      </c>
+      <c r="I209" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>16</v>
       </c>
@@ -6066,10 +6072,10 @@
         <v>18</v>
       </c>
       <c r="E210">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>16</v>
       </c>
@@ -6083,10 +6089,10 @@
         <v>18</v>
       </c>
       <c r="E211">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>16</v>
       </c>
@@ -6100,10 +6106,10 @@
         <v>18</v>
       </c>
       <c r="E212">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>16</v>
       </c>
@@ -6117,10 +6123,10 @@
         <v>18</v>
       </c>
       <c r="E213">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>16</v>
       </c>
@@ -6134,10 +6140,10 @@
         <v>18</v>
       </c>
       <c r="E214">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>16</v>
       </c>
@@ -6151,10 +6157,10 @@
         <v>18</v>
       </c>
       <c r="E215">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>16</v>
       </c>
@@ -6168,10 +6174,10 @@
         <v>18</v>
       </c>
       <c r="E216">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>16</v>
       </c>
@@ -6185,10 +6191,10 @@
         <v>18</v>
       </c>
       <c r="E217">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>16</v>
       </c>
@@ -6202,10 +6208,10 @@
         <v>18</v>
       </c>
       <c r="E218">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>16</v>
       </c>
@@ -6219,10 +6225,10 @@
         <v>18</v>
       </c>
       <c r="E219">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>16</v>
       </c>
@@ -6236,10 +6242,10 @@
         <v>18</v>
       </c>
       <c r="E220">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>16</v>
       </c>
@@ -6253,10 +6259,10 @@
         <v>18</v>
       </c>
       <c r="E221">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>16</v>
       </c>
@@ -6270,10 +6276,10 @@
         <v>18</v>
       </c>
       <c r="E222">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>16</v>
       </c>
@@ -6287,10 +6293,10 @@
         <v>18</v>
       </c>
       <c r="E223">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>16</v>
       </c>
@@ -6304,7 +6310,7 @@
         <v>18</v>
       </c>
       <c r="E224">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -6321,7 +6327,7 @@
         <v>18</v>
       </c>
       <c r="E225">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -6338,7 +6344,7 @@
         <v>18</v>
       </c>
       <c r="E226">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
@@ -6355,7 +6361,7 @@
         <v>18</v>
       </c>
       <c r="E227">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -6372,7 +6378,7 @@
         <v>18</v>
       </c>
       <c r="E228">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
@@ -6389,7 +6395,7 @@
         <v>18</v>
       </c>
       <c r="E229">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -6406,7 +6412,7 @@
         <v>18</v>
       </c>
       <c r="E230">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
@@ -6423,7 +6429,7 @@
         <v>18</v>
       </c>
       <c r="E231">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -6434,19 +6440,13 @@
         <v>41</v>
       </c>
       <c r="C232" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D232" t="s">
         <v>18</v>
       </c>
       <c r="E232">
-        <v>1990</v>
-      </c>
-      <c r="G232">
-        <v>1</v>
-      </c>
-      <c r="I232" t="s">
-        <v>117</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
@@ -6463,7 +6463,7 @@
         <v>18</v>
       </c>
       <c r="E233">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -6486,7 +6486,7 @@
         <v>18</v>
       </c>
       <c r="E234">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -6509,7 +6509,7 @@
         <v>18</v>
       </c>
       <c r="E235">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -6532,7 +6532,7 @@
         <v>18</v>
       </c>
       <c r="E236">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -6555,7 +6555,7 @@
         <v>18</v>
       </c>
       <c r="E237">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -6578,7 +6578,7 @@
         <v>18</v>
       </c>
       <c r="E238">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -6601,7 +6601,7 @@
         <v>18</v>
       </c>
       <c r="E239">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -6624,7 +6624,7 @@
         <v>18</v>
       </c>
       <c r="E240">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -6647,7 +6647,7 @@
         <v>18</v>
       </c>
       <c r="E241">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -6670,7 +6670,7 @@
         <v>18</v>
       </c>
       <c r="E242">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -6693,7 +6693,7 @@
         <v>18</v>
       </c>
       <c r="E243">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -6716,7 +6716,7 @@
         <v>18</v>
       </c>
       <c r="E244">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -6739,7 +6739,7 @@
         <v>18</v>
       </c>
       <c r="E245">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -6762,7 +6762,7 @@
         <v>18</v>
       </c>
       <c r="E246">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -6785,7 +6785,7 @@
         <v>18</v>
       </c>
       <c r="E247">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G247">
         <v>1</v>
@@ -6808,7 +6808,7 @@
         <v>18</v>
       </c>
       <c r="E248">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -6831,7 +6831,7 @@
         <v>18</v>
       </c>
       <c r="E249">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G249">
         <v>1</v>
@@ -6854,7 +6854,7 @@
         <v>18</v>
       </c>
       <c r="E250">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -6877,7 +6877,7 @@
         <v>18</v>
       </c>
       <c r="E251">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -6900,7 +6900,7 @@
         <v>18</v>
       </c>
       <c r="E252">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G252">
         <v>1</v>
@@ -6923,7 +6923,7 @@
         <v>18</v>
       </c>
       <c r="E253">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G253">
         <v>1</v>
@@ -6946,7 +6946,7 @@
         <v>18</v>
       </c>
       <c r="E254">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -6969,7 +6969,7 @@
         <v>18</v>
       </c>
       <c r="E255">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -6992,7 +6992,7 @@
         <v>18</v>
       </c>
       <c r="E256">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -7015,7 +7015,7 @@
         <v>18</v>
       </c>
       <c r="E257">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -7038,7 +7038,7 @@
         <v>18</v>
       </c>
       <c r="E258">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -7061,7 +7061,7 @@
         <v>18</v>
       </c>
       <c r="E259">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -7084,7 +7084,7 @@
         <v>18</v>
       </c>
       <c r="E260">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -7107,7 +7107,7 @@
         <v>18</v>
       </c>
       <c r="E261">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -7124,16 +7124,16 @@
         <v>41</v>
       </c>
       <c r="C262" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D262" t="s">
         <v>18</v>
       </c>
       <c r="E262">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262" t="s">
         <v>117</v>
@@ -7153,7 +7153,7 @@
         <v>18</v>
       </c>
       <c r="E263">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -7176,7 +7176,7 @@
         <v>18</v>
       </c>
       <c r="E264">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G264">
         <v>0</v>
@@ -7199,7 +7199,7 @@
         <v>18</v>
       </c>
       <c r="E265">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -7222,7 +7222,7 @@
         <v>18</v>
       </c>
       <c r="E266">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -7245,7 +7245,7 @@
         <v>18</v>
       </c>
       <c r="E267">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -7268,7 +7268,7 @@
         <v>18</v>
       </c>
       <c r="E268">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         <v>18</v>
       </c>
       <c r="E269">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -7314,7 +7314,7 @@
         <v>18</v>
       </c>
       <c r="E270">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -7337,7 +7337,7 @@
         <v>18</v>
       </c>
       <c r="E271">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -7360,7 +7360,7 @@
         <v>18</v>
       </c>
       <c r="E272">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -7383,7 +7383,7 @@
         <v>18</v>
       </c>
       <c r="E273">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -7406,7 +7406,7 @@
         <v>18</v>
       </c>
       <c r="E274">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -7429,7 +7429,7 @@
         <v>18</v>
       </c>
       <c r="E275">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>18</v>
       </c>
       <c r="E276">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G276">
         <v>0</v>
@@ -7475,7 +7475,7 @@
         <v>18</v>
       </c>
       <c r="E277">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G277">
         <v>0</v>
@@ -7498,7 +7498,7 @@
         <v>18</v>
       </c>
       <c r="E278">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G278">
         <v>0</v>
@@ -7521,7 +7521,7 @@
         <v>18</v>
       </c>
       <c r="E279">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G279">
         <v>0</v>
@@ -7544,7 +7544,7 @@
         <v>18</v>
       </c>
       <c r="E280">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -7567,7 +7567,7 @@
         <v>18</v>
       </c>
       <c r="E281">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -7590,7 +7590,7 @@
         <v>18</v>
       </c>
       <c r="E282">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G282">
         <v>0</v>
@@ -7613,7 +7613,7 @@
         <v>18</v>
       </c>
       <c r="E283">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -7636,7 +7636,7 @@
         <v>18</v>
       </c>
       <c r="E284">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G284">
         <v>0</v>
@@ -7659,7 +7659,7 @@
         <v>18</v>
       </c>
       <c r="E285">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>18</v>
       </c>
       <c r="E286">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -7705,7 +7705,7 @@
         <v>18</v>
       </c>
       <c r="E287">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -7728,7 +7728,7 @@
         <v>18</v>
       </c>
       <c r="E288">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G288">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>18</v>
       </c>
       <c r="E289">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G289">
         <v>0</v>
@@ -7774,7 +7774,7 @@
         <v>18</v>
       </c>
       <c r="E290">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -7797,7 +7797,7 @@
         <v>18</v>
       </c>
       <c r="E291">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -7814,22 +7814,19 @@
         <v>41</v>
       </c>
       <c r="C292" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D292" t="s">
         <v>18</v>
       </c>
       <c r="E292">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G292">
-        <v>37.450000000000003</v>
-      </c>
-      <c r="H292" t="s">
-        <v>121</v>
-      </c>
-      <c r="L292" t="s">
-        <v>153</v>
+        <v>0</v>
+      </c>
+      <c r="I292" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -7846,13 +7843,13 @@
         <v>18</v>
       </c>
       <c r="E293">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G293">
         <v>37.450000000000003</v>
       </c>
       <c r="H293" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L293" t="s">
         <v>153</v>
@@ -7872,13 +7869,13 @@
         <v>18</v>
       </c>
       <c r="E294">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G294">
-        <v>38.85</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="H294" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L294" t="s">
         <v>153</v>
@@ -7898,13 +7895,13 @@
         <v>18</v>
       </c>
       <c r="E295">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G295">
-        <v>37.950000000000003</v>
+        <v>38.85</v>
       </c>
       <c r="H295" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L295" t="s">
         <v>153</v>
@@ -7924,13 +7921,13 @@
         <v>18</v>
       </c>
       <c r="E296">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G296">
-        <v>37.4</v>
+        <v>37.950000000000003</v>
       </c>
       <c r="H296" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L296" t="s">
         <v>153</v>
@@ -7950,13 +7947,13 @@
         <v>18</v>
       </c>
       <c r="E297">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G297">
-        <v>36.049999999999997</v>
+        <v>37.4</v>
       </c>
       <c r="H297" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L297" t="s">
         <v>153</v>
@@ -7976,13 +7973,13 @@
         <v>18</v>
       </c>
       <c r="E298">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G298">
-        <v>34.450000000000003</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="H298" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L298" t="s">
         <v>153</v>
@@ -8002,13 +7999,13 @@
         <v>18</v>
       </c>
       <c r="E299">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G299">
-        <v>33.950000000000003</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="H299" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L299" t="s">
         <v>153</v>
@@ -8028,13 +8025,13 @@
         <v>18</v>
       </c>
       <c r="E300">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G300">
-        <v>33.15</v>
+        <v>33.950000000000003</v>
       </c>
       <c r="H300" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L300" t="s">
         <v>153</v>
@@ -8054,13 +8051,13 @@
         <v>18</v>
       </c>
       <c r="E301">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G301">
-        <v>31.8</v>
+        <v>33.15</v>
       </c>
       <c r="H301" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L301" t="s">
         <v>153</v>
@@ -8080,13 +8077,13 @@
         <v>18</v>
       </c>
       <c r="E302">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G302">
-        <v>31.25</v>
+        <v>31.8</v>
       </c>
       <c r="H302" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L302" t="s">
         <v>153</v>
@@ -8106,13 +8103,13 @@
         <v>18</v>
       </c>
       <c r="E303">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G303">
-        <v>32.200000000000003</v>
+        <v>31.25</v>
       </c>
       <c r="H303" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L303" t="s">
         <v>153</v>
@@ -8132,13 +8129,13 @@
         <v>18</v>
       </c>
       <c r="E304">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G304">
-        <v>31</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="H304" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="L304" t="s">
         <v>153</v>
@@ -8158,22 +8155,16 @@
         <v>18</v>
       </c>
       <c r="E305">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G305">
-        <v>32.4</v>
+        <v>31</v>
       </c>
       <c r="H305" t="s">
-        <v>155</v>
-      </c>
-      <c r="J305" t="s">
-        <v>156</v>
-      </c>
-      <c r="K305" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L305" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
@@ -8190,13 +8181,13 @@
         <v>18</v>
       </c>
       <c r="E306">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G306">
-        <v>31.7</v>
+        <v>32.4</v>
       </c>
       <c r="H306" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J306" t="s">
         <v>156</v>
@@ -8222,13 +8213,13 @@
         <v>18</v>
       </c>
       <c r="E307">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G307">
-        <v>34.1</v>
+        <v>31.7</v>
       </c>
       <c r="H307" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J307" t="s">
         <v>156</v>
@@ -8254,13 +8245,13 @@
         <v>18</v>
       </c>
       <c r="E308">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G308">
-        <v>38.299999999999997</v>
+        <v>34.1</v>
       </c>
       <c r="H308" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J308" t="s">
         <v>156</v>
@@ -8286,13 +8277,13 @@
         <v>18</v>
       </c>
       <c r="E309">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G309">
-        <v>41.85</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="H309" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J309" t="s">
         <v>156</v>
@@ -8318,13 +8309,13 @@
         <v>18</v>
       </c>
       <c r="E310">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G310">
-        <v>37.1</v>
+        <v>41.85</v>
       </c>
       <c r="H310" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J310" t="s">
         <v>156</v>
@@ -8350,13 +8341,13 @@
         <v>18</v>
       </c>
       <c r="E311">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G311">
-        <v>39.549999999999997</v>
+        <v>37.1</v>
       </c>
       <c r="H311" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J311" t="s">
         <v>156</v>
@@ -8382,13 +8373,13 @@
         <v>18</v>
       </c>
       <c r="E312">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G312">
-        <v>38.5</v>
+        <v>39.549999999999997</v>
       </c>
       <c r="H312" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J312" t="s">
         <v>156</v>
@@ -8414,13 +8405,13 @@
         <v>18</v>
       </c>
       <c r="E313">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G313">
-        <v>40.549999999999997</v>
+        <v>38.5</v>
       </c>
       <c r="H313" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J313" t="s">
         <v>156</v>
@@ -8446,13 +8437,13 @@
         <v>18</v>
       </c>
       <c r="E314">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G314">
-        <v>42.3</v>
+        <v>40.549999999999997</v>
       </c>
       <c r="H314" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J314" t="s">
         <v>156</v>
@@ -8478,13 +8469,13 @@
         <v>18</v>
       </c>
       <c r="E315">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G315">
-        <v>40.65</v>
+        <v>42.3</v>
       </c>
       <c r="H315" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J315" t="s">
         <v>156</v>
@@ -8510,13 +8501,13 @@
         <v>18</v>
       </c>
       <c r="E316">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G316">
-        <v>38.6</v>
+        <v>40.65</v>
       </c>
       <c r="H316" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J316" t="s">
         <v>156</v>
@@ -8542,13 +8533,13 @@
         <v>18</v>
       </c>
       <c r="E317">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G317">
-        <v>36.9</v>
+        <v>38.6</v>
       </c>
       <c r="H317" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="J317" t="s">
         <v>156</v>
@@ -8574,13 +8565,13 @@
         <v>18</v>
       </c>
       <c r="E318">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G318">
-        <v>34.5</v>
+        <v>36.9</v>
       </c>
       <c r="H318" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="J318" t="s">
         <v>156</v>
@@ -8606,13 +8597,13 @@
         <v>18</v>
       </c>
       <c r="E319">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G319">
-        <v>33.1</v>
+        <v>34.5</v>
       </c>
       <c r="H319" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="J319" t="s">
         <v>156</v>
@@ -8638,13 +8629,13 @@
         <v>18</v>
       </c>
       <c r="E320">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G320">
-        <v>33.65</v>
+        <v>33.1</v>
       </c>
       <c r="H320" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J320" t="s">
         <v>156</v>
@@ -8670,13 +8661,13 @@
         <v>18</v>
       </c>
       <c r="E321">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G321">
-        <v>37.299999999999997</v>
+        <v>33.65</v>
       </c>
       <c r="H321" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J321" t="s">
         <v>156</v>
@@ -8688,20 +8679,52 @@
         <v>158</v>
       </c>
     </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>16</v>
+      </c>
+      <c r="B322" t="s">
+        <v>41</v>
+      </c>
+      <c r="C322" t="s">
+        <v>40</v>
+      </c>
+      <c r="D322" t="s">
+        <v>18</v>
+      </c>
+      <c r="E322">
+        <v>2019</v>
+      </c>
+      <c r="G322">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="H322" t="s">
+        <v>150</v>
+      </c>
+      <c r="J322" t="s">
+        <v>156</v>
+      </c>
+      <c r="K322" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L322" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:L520" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L521" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K41" r:id="rId1" xr:uid="{9280243E-6949-8941-9BA5-0D72F7E0C700}"/>
-    <hyperlink ref="K42" r:id="rId2" xr:uid="{95F27C1E-4658-BE4A-A2B3-46F76ACD4F74}"/>
-    <hyperlink ref="K43" r:id="rId3" xr:uid="{AFAD837F-9233-E540-8A86-E8C50A7683A6}"/>
-    <hyperlink ref="K44" r:id="rId4" xr:uid="{69024611-6EE1-D642-B375-225612CAAEEE}"/>
-    <hyperlink ref="K47" r:id="rId5" xr:uid="{DBF5AFD9-F29D-5C4B-85DD-A886A1AB63C8}"/>
-    <hyperlink ref="K51" r:id="rId6" xr:uid="{DA5C67C9-4C59-AE4B-BEE9-F504118ECC57}"/>
-    <hyperlink ref="K52" r:id="rId7" xr:uid="{B6037CA9-473C-084B-B6AA-934620BE2105}"/>
-    <hyperlink ref="K53:K111" r:id="rId8" display="https://www.bfe.admin.ch/bfe/de/home/versorgung/statistik-und-geodaten/energiestatistiken/gesamtenergiestatistik.html/" xr:uid="{EB6A06A8-3AE4-2641-9CC0-7161E8D21A52}"/>
-    <hyperlink ref="K305" r:id="rId9" xr:uid="{ECE01210-F162-8640-B72C-72CDC6F4DD33}"/>
-    <hyperlink ref="K306:K321" r:id="rId10" display="https://ec.europa.eu/eurostat/web/main/data/database" xr:uid="{B4654278-E585-5544-84B8-E8BAFEE330AA}"/>
+    <hyperlink ref="K42" r:id="rId1" xr:uid="{9280243E-6949-8941-9BA5-0D72F7E0C700}"/>
+    <hyperlink ref="K43" r:id="rId2" xr:uid="{95F27C1E-4658-BE4A-A2B3-46F76ACD4F74}"/>
+    <hyperlink ref="K44" r:id="rId3" xr:uid="{AFAD837F-9233-E540-8A86-E8C50A7683A6}"/>
+    <hyperlink ref="K45" r:id="rId4" xr:uid="{69024611-6EE1-D642-B375-225612CAAEEE}"/>
+    <hyperlink ref="K48" r:id="rId5" xr:uid="{DBF5AFD9-F29D-5C4B-85DD-A886A1AB63C8}"/>
+    <hyperlink ref="K52" r:id="rId6" xr:uid="{DA5C67C9-4C59-AE4B-BEE9-F504118ECC57}"/>
+    <hyperlink ref="K53" r:id="rId7" xr:uid="{B6037CA9-473C-084B-B6AA-934620BE2105}"/>
+    <hyperlink ref="K54:K112" r:id="rId8" display="https://www.bfe.admin.ch/bfe/de/home/versorgung/statistik-und-geodaten/energiestatistiken/gesamtenergiestatistik.html/" xr:uid="{EB6A06A8-3AE4-2641-9CC0-7161E8D21A52}"/>
+    <hyperlink ref="K306" r:id="rId9" xr:uid="{ECE01210-F162-8640-B72C-72CDC6F4DD33}"/>
+    <hyperlink ref="K307:K322" r:id="rId10" display="https://ec.europa.eu/eurostat/web/main/data/database" xr:uid="{B4654278-E585-5544-84B8-E8BAFEE330AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo/trade/CHE_trd_elecsupply.xlsx
+++ b/data/zenodo/trade/CHE_trd_elecsupply.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/trade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD055C32-D50E-9142-9D7B-88A76F32802A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442D8672-6B55-6342-B906-FE1E809D7BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$521</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$522</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="187">
   <si>
     <t>Name:</t>
   </si>
@@ -578,12 +578,6 @@
     <t>configuration_fxe</t>
   </si>
   <si>
-    <t>max_share_at_in_flow</t>
-  </si>
-  <si>
-    <t>max_share_at_out_flow</t>
-  </si>
-  <si>
     <t>PJ/GW</t>
   </si>
   <si>
@@ -591,6 +585,15 @@
   </si>
   <si>
     <t>enable_year</t>
+  </si>
+  <si>
+    <t>cost_variable_om</t>
+  </si>
+  <si>
+    <t>flow_out_share_max</t>
+  </si>
+  <si>
+    <t>flow_in_share_max</t>
   </si>
 </sst>
 </file>
@@ -692,9 +695,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -732,9 +735,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -767,26 +770,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -819,26 +805,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1012,11 +981,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L322"/>
+  <dimension ref="A1:L323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1152,7 +1121,7 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -1247,10 +1216,10 @@
         <v>31.54</v>
       </c>
       <c r="H13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1287,16 +1256,13 @@
         <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="G15">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I15" t="s">
-        <v>117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1307,16 +1273,13 @@
         <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="G16">
-        <v>30</v>
-      </c>
-      <c r="H16" t="s">
-        <v>118</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I16" t="s">
         <v>117</v>
@@ -1330,7 +1293,7 @@
         <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1344,23 +1307,11 @@
         <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
-      <c r="G18">
-        <v>8</v>
-      </c>
-      <c r="H18" t="s">
-        <v>112</v>
-      </c>
-      <c r="J18" t="s">
-        <v>110</v>
-      </c>
-      <c r="L18" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1370,20 +1321,23 @@
         <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
-      </c>
-      <c r="F19" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>112</v>
       </c>
       <c r="J19" t="s">
         <v>110</v>
       </c>
+      <c r="L19" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1393,7 +1347,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
         <v>176</v>
@@ -1402,14 +1356,11 @@
         <v>175</v>
       </c>
       <c r="G20">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>110</v>
       </c>
-      <c r="L20" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -1419,7 +1370,7 @@
         <v>41</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D21" t="s">
         <v>176</v>
@@ -1445,7 +1396,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D22" t="s">
         <v>176</v>
@@ -1454,11 +1405,14 @@
         <v>175</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J22" t="s">
         <v>110</v>
       </c>
+      <c r="L22" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -1467,20 +1421,17 @@
       <c r="B23" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="s">
-        <v>31</v>
+      <c r="C23" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23">
-        <v>1990</v>
+        <v>176</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
       </c>
       <c r="G23">
-        <v>6540</v>
-      </c>
-      <c r="H23" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>110</v>
@@ -1500,7 +1451,16 @@
         <v>18</v>
       </c>
       <c r="E24">
-        <v>1991</v>
+        <v>1990</v>
+      </c>
+      <c r="G24">
+        <v>6540</v>
+      </c>
+      <c r="H24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1517,7 +1477,7 @@
         <v>18</v>
       </c>
       <c r="E25">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1534,7 +1494,7 @@
         <v>18</v>
       </c>
       <c r="E26">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1551,7 +1511,7 @@
         <v>18</v>
       </c>
       <c r="E27">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1568,7 +1528,7 @@
         <v>18</v>
       </c>
       <c r="E28">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1585,7 +1545,7 @@
         <v>18</v>
       </c>
       <c r="E29">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1602,7 +1562,7 @@
         <v>18</v>
       </c>
       <c r="E30">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1619,7 +1579,7 @@
         <v>18</v>
       </c>
       <c r="E31">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1636,7 +1596,7 @@
         <v>18</v>
       </c>
       <c r="E32">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1653,7 +1613,7 @@
         <v>18</v>
       </c>
       <c r="E33">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1670,7 +1630,7 @@
         <v>18</v>
       </c>
       <c r="E34">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1687,7 +1647,7 @@
         <v>18</v>
       </c>
       <c r="E35">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1704,7 +1664,7 @@
         <v>18</v>
       </c>
       <c r="E36">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1721,7 +1681,7 @@
         <v>18</v>
       </c>
       <c r="E37">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1738,7 +1698,7 @@
         <v>18</v>
       </c>
       <c r="E38">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1755,7 +1715,7 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1772,7 +1732,7 @@
         <v>18</v>
       </c>
       <c r="E40">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1789,7 +1749,7 @@
         <v>18</v>
       </c>
       <c r="E41">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1806,22 +1766,7 @@
         <v>18</v>
       </c>
       <c r="E42">
-        <v>2009</v>
-      </c>
-      <c r="G42">
-        <v>6894</v>
-      </c>
-      <c r="H42" t="s">
-        <v>43</v>
-      </c>
-      <c r="J42" t="s">
-        <v>44</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L42" t="s">
-        <v>46</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -1838,10 +1783,10 @@
         <v>18</v>
       </c>
       <c r="E43">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G43">
-        <v>6971</v>
+        <v>6894</v>
       </c>
       <c r="H43" t="s">
         <v>43</v>
@@ -1870,10 +1815,10 @@
         <v>18</v>
       </c>
       <c r="E44">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G44">
-        <v>6977</v>
+        <v>6971</v>
       </c>
       <c r="H44" t="s">
         <v>43</v>
@@ -1902,7 +1847,13 @@
         <v>18</v>
       </c>
       <c r="E45">
-        <v>2012</v>
+        <v>2011</v>
+      </c>
+      <c r="G45">
+        <v>6977</v>
+      </c>
+      <c r="H45" t="s">
+        <v>43</v>
       </c>
       <c r="J45" t="s">
         <v>44</v>
@@ -1928,7 +1879,16 @@
         <v>18</v>
       </c>
       <c r="E46">
-        <v>2013</v>
+        <v>2012</v>
+      </c>
+      <c r="J46" t="s">
+        <v>44</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L46" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -1945,7 +1905,7 @@
         <v>18</v>
       </c>
       <c r="E47">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -1962,22 +1922,7 @@
         <v>18</v>
       </c>
       <c r="E48">
-        <v>2015</v>
-      </c>
-      <c r="G48">
-        <v>7233</v>
-      </c>
-      <c r="H48" t="s">
-        <v>43</v>
-      </c>
-      <c r="J48" t="s">
-        <v>44</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L48" t="s">
-        <v>46</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -1994,7 +1939,22 @@
         <v>18</v>
       </c>
       <c r="E49">
-        <v>2016</v>
+        <v>2015</v>
+      </c>
+      <c r="G49">
+        <v>7233</v>
+      </c>
+      <c r="H49" t="s">
+        <v>43</v>
+      </c>
+      <c r="J49" t="s">
+        <v>44</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L49" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2011,7 +1971,7 @@
         <v>18</v>
       </c>
       <c r="E50">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2028,7 +1988,7 @@
         <v>18</v>
       </c>
       <c r="E51">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2045,22 +2005,7 @@
         <v>18</v>
       </c>
       <c r="E52">
-        <v>2019</v>
-      </c>
-      <c r="G52">
-        <v>8446</v>
-      </c>
-      <c r="H52" t="s">
-        <v>43</v>
-      </c>
-      <c r="J52" t="s">
-        <v>44</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L52" t="s">
-        <v>46</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2071,28 +2016,28 @@
         <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
       </c>
       <c r="E53">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G53">
-        <v>89670</v>
+        <v>8446</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J53" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L53" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2109,16 +2054,16 @@
         <v>18</v>
       </c>
       <c r="E54">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G54">
-        <v>96480</v>
+        <v>89670</v>
       </c>
       <c r="H54" t="s">
         <v>47</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>48</v>
@@ -2141,16 +2086,16 @@
         <v>18</v>
       </c>
       <c r="E55">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G55">
-        <v>93770</v>
+        <v>96480</v>
       </c>
       <c r="H55" t="s">
         <v>47</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>48</v>
@@ -2173,16 +2118,16 @@
         <v>18</v>
       </c>
       <c r="E56">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G56">
-        <v>111790</v>
+        <v>93770</v>
       </c>
       <c r="H56" t="s">
         <v>47</v>
       </c>
       <c r="J56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>48</v>
@@ -2205,16 +2150,16 @@
         <v>18</v>
       </c>
       <c r="E57">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G57">
-        <v>124440</v>
+        <v>111790</v>
       </c>
       <c r="H57" t="s">
         <v>47</v>
       </c>
       <c r="J57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>48</v>
@@ -2237,16 +2182,16 @@
         <v>18</v>
       </c>
       <c r="E58">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G58">
-        <v>130390</v>
+        <v>124440</v>
       </c>
       <c r="H58" t="s">
         <v>47</v>
       </c>
       <c r="J58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>48</v>
@@ -2269,16 +2214,16 @@
         <v>18</v>
       </c>
       <c r="E59">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G59">
-        <v>123950</v>
+        <v>130390</v>
       </c>
       <c r="H59" t="s">
         <v>47</v>
       </c>
       <c r="J59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>48</v>
@@ -2301,16 +2246,16 @@
         <v>18</v>
       </c>
       <c r="E60">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G60">
-        <v>134670</v>
+        <v>123950</v>
       </c>
       <c r="H60" t="s">
         <v>47</v>
       </c>
       <c r="J60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>48</v>
@@ -2333,16 +2278,16 @@
         <v>18</v>
       </c>
       <c r="E61">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G61">
-        <v>156140</v>
+        <v>134670</v>
       </c>
       <c r="H61" t="s">
         <v>47</v>
       </c>
       <c r="J61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>48</v>
@@ -2365,16 +2310,16 @@
         <v>18</v>
       </c>
       <c r="E62">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G62">
-        <v>170250</v>
+        <v>156140</v>
       </c>
       <c r="H62" t="s">
         <v>47</v>
       </c>
       <c r="J62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>48</v>
@@ -2397,16 +2342,16 @@
         <v>18</v>
       </c>
       <c r="E63">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G63">
-        <v>113040</v>
+        <v>170250</v>
       </c>
       <c r="H63" t="s">
         <v>47</v>
       </c>
       <c r="J63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>48</v>
@@ -2429,16 +2374,16 @@
         <v>18</v>
       </c>
       <c r="E64">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G64">
-        <v>124340</v>
+        <v>113040</v>
       </c>
       <c r="H64" t="s">
         <v>47</v>
       </c>
       <c r="J64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>48</v>
@@ -2461,16 +2406,16 @@
         <v>18</v>
       </c>
       <c r="E65">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G65">
-        <v>116310</v>
+        <v>124340</v>
       </c>
       <c r="H65" t="s">
         <v>47</v>
       </c>
       <c r="J65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>48</v>
@@ -2493,16 +2438,16 @@
         <v>18</v>
       </c>
       <c r="E66">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G66">
-        <v>119510</v>
+        <v>116310</v>
       </c>
       <c r="H66" t="s">
         <v>47</v>
       </c>
       <c r="J66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>48</v>
@@ -2525,16 +2470,16 @@
         <v>18</v>
       </c>
       <c r="E67">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G67">
-        <v>99930</v>
+        <v>119510</v>
       </c>
       <c r="H67" t="s">
         <v>47</v>
       </c>
       <c r="J67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>48</v>
@@ -2557,16 +2502,16 @@
         <v>18</v>
       </c>
       <c r="E68">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G68">
-        <v>115190</v>
+        <v>99930</v>
       </c>
       <c r="H68" t="s">
         <v>47</v>
       </c>
       <c r="J68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>48</v>
@@ -2589,16 +2534,16 @@
         <v>18</v>
       </c>
       <c r="E69">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G69">
-        <v>111960</v>
+        <v>115190</v>
       </c>
       <c r="H69" t="s">
         <v>47</v>
       </c>
       <c r="J69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>48</v>
@@ -2621,16 +2566,16 @@
         <v>18</v>
       </c>
       <c r="E70">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G70">
-        <v>132770</v>
+        <v>111960</v>
       </c>
       <c r="H70" t="s">
         <v>47</v>
       </c>
       <c r="J70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>48</v>
@@ -2653,16 +2598,16 @@
         <v>18</v>
       </c>
       <c r="E71">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G71">
-        <v>117850</v>
+        <v>132770</v>
       </c>
       <c r="H71" t="s">
         <v>47</v>
       </c>
       <c r="J71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>48</v>
@@ -2685,16 +2630,16 @@
         <v>18</v>
       </c>
       <c r="E72">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G72">
-        <v>120690</v>
+        <v>117850</v>
       </c>
       <c r="H72" t="s">
         <v>47</v>
       </c>
       <c r="J72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>48</v>
@@ -2717,16 +2662,16 @@
         <v>18</v>
       </c>
       <c r="E73">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G73">
-        <v>118370</v>
+        <v>120690</v>
       </c>
       <c r="H73" t="s">
         <v>47</v>
       </c>
       <c r="J73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>48</v>
@@ -2749,16 +2694,16 @@
         <v>18</v>
       </c>
       <c r="E74">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G74">
-        <v>116050</v>
+        <v>118370</v>
       </c>
       <c r="H74" t="s">
         <v>47</v>
       </c>
       <c r="J74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>48</v>
@@ -2781,16 +2726,16 @@
         <v>18</v>
       </c>
       <c r="E75">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G75">
-        <v>121500</v>
+        <v>116050</v>
       </c>
       <c r="H75" t="s">
         <v>47</v>
       </c>
       <c r="J75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>48</v>
@@ -2813,16 +2758,16 @@
         <v>18</v>
       </c>
       <c r="E76">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G76">
-        <v>116170</v>
+        <v>121500</v>
       </c>
       <c r="H76" t="s">
         <v>47</v>
       </c>
       <c r="J76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>48</v>
@@ -2845,16 +2790,16 @@
         <v>18</v>
       </c>
       <c r="E77">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G77">
-        <v>122480</v>
+        <v>116170</v>
       </c>
       <c r="H77" t="s">
         <v>47</v>
       </c>
       <c r="J77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>48</v>
@@ -2877,16 +2822,16 @@
         <v>18</v>
       </c>
       <c r="E78">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G78">
-        <v>126240</v>
+        <v>122480</v>
       </c>
       <c r="H78" t="s">
         <v>47</v>
       </c>
       <c r="J78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>48</v>
@@ -2909,16 +2854,16 @@
         <v>18</v>
       </c>
       <c r="E79">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G79">
-        <v>108620</v>
+        <v>126240</v>
       </c>
       <c r="H79" t="s">
         <v>47</v>
       </c>
       <c r="J79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>48</v>
@@ -2941,16 +2886,16 @@
         <v>18</v>
       </c>
       <c r="E80">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G80">
-        <v>111410</v>
+        <v>108620</v>
       </c>
       <c r="H80" t="s">
         <v>47</v>
       </c>
       <c r="J80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>48</v>
@@ -2973,16 +2918,16 @@
         <v>18</v>
       </c>
       <c r="E81">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G81">
-        <v>117390</v>
+        <v>111410</v>
       </c>
       <c r="H81" t="s">
         <v>47</v>
       </c>
       <c r="J81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>48</v>
@@ -3005,16 +2950,16 @@
         <v>18</v>
       </c>
       <c r="E82">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G82">
-        <v>128750</v>
+        <v>117390</v>
       </c>
       <c r="H82" t="s">
         <v>47</v>
       </c>
       <c r="J82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>48</v>
@@ -3031,28 +2976,28 @@
         <v>41</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
       </c>
       <c r="E83">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G83">
-        <v>82080</v>
+        <v>128750</v>
       </c>
       <c r="H83" t="s">
         <v>47</v>
       </c>
       <c r="J83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>48</v>
       </c>
       <c r="L83" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3069,16 +3014,16 @@
         <v>18</v>
       </c>
       <c r="E84">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G84">
-        <v>86420</v>
+        <v>82080</v>
       </c>
       <c r="H84" t="s">
         <v>47</v>
       </c>
       <c r="J84" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>48</v>
@@ -3101,16 +3046,16 @@
         <v>18</v>
       </c>
       <c r="E85">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G85">
-        <v>78330</v>
+        <v>86420</v>
       </c>
       <c r="H85" t="s">
         <v>47</v>
       </c>
       <c r="J85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>48</v>
@@ -3133,16 +3078,16 @@
         <v>18</v>
       </c>
       <c r="E86">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G86">
-        <v>85870</v>
+        <v>78330</v>
       </c>
       <c r="H86" t="s">
         <v>47</v>
       </c>
       <c r="J86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>48</v>
@@ -3165,16 +3110,16 @@
         <v>18</v>
       </c>
       <c r="E87">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G87">
-        <v>81800</v>
+        <v>85870</v>
       </c>
       <c r="H87" t="s">
         <v>47</v>
       </c>
       <c r="J87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>48</v>
@@ -3197,16 +3142,16 @@
         <v>18</v>
       </c>
       <c r="E88">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G88">
-        <v>104210</v>
+        <v>81800</v>
       </c>
       <c r="H88" t="s">
         <v>47</v>
       </c>
       <c r="J88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>48</v>
@@ -3229,16 +3174,16 @@
         <v>18</v>
       </c>
       <c r="E89">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G89">
-        <v>120550</v>
+        <v>104210</v>
       </c>
       <c r="H89" t="s">
         <v>47</v>
       </c>
       <c r="J89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>48</v>
@@ -3261,16 +3206,16 @@
         <v>18</v>
       </c>
       <c r="E90">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G90">
-        <v>110360</v>
+        <v>120550</v>
       </c>
       <c r="H90" t="s">
         <v>47</v>
       </c>
       <c r="J90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>48</v>
@@ -3293,16 +3238,16 @@
         <v>18</v>
       </c>
       <c r="E91">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G91">
-        <v>134710</v>
+        <v>110360</v>
       </c>
       <c r="H91" t="s">
         <v>47</v>
       </c>
       <c r="J91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>48</v>
@@ -3325,16 +3270,16 @@
         <v>18</v>
       </c>
       <c r="E92">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G92">
-        <v>133430</v>
+        <v>134710</v>
       </c>
       <c r="H92" t="s">
         <v>47</v>
       </c>
       <c r="J92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>48</v>
@@ -3357,16 +3302,16 @@
         <v>18</v>
       </c>
       <c r="E93">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G93">
-        <v>87590</v>
+        <v>133430</v>
       </c>
       <c r="H93" t="s">
         <v>47</v>
       </c>
       <c r="J93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>48</v>
@@ -3389,16 +3334,16 @@
         <v>18</v>
       </c>
       <c r="E94">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G94">
-        <v>86750</v>
+        <v>87590</v>
       </c>
       <c r="H94" t="s">
         <v>47</v>
       </c>
       <c r="J94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>48</v>
@@ -3421,16 +3366,16 @@
         <v>18</v>
       </c>
       <c r="E95">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G95">
-        <v>100080</v>
+        <v>86750</v>
       </c>
       <c r="H95" t="s">
         <v>47</v>
       </c>
       <c r="J95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>48</v>
@@ -3453,16 +3398,16 @@
         <v>18</v>
       </c>
       <c r="E96">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G96">
-        <v>108300</v>
+        <v>100080</v>
       </c>
       <c r="H96" t="s">
         <v>47</v>
       </c>
       <c r="J96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>48</v>
@@ -3485,16 +3430,16 @@
         <v>18</v>
       </c>
       <c r="E97">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G97">
-        <v>97400</v>
+        <v>108300</v>
       </c>
       <c r="H97" t="s">
         <v>47</v>
       </c>
       <c r="J97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>48</v>
@@ -3517,16 +3462,16 @@
         <v>18</v>
       </c>
       <c r="E98">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G98">
-        <v>138050</v>
+        <v>97400</v>
       </c>
       <c r="H98" t="s">
         <v>47</v>
       </c>
       <c r="J98" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>48</v>
@@ -3549,16 +3494,16 @@
         <v>18</v>
       </c>
       <c r="E99">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G99">
-        <v>121690</v>
+        <v>138050</v>
       </c>
       <c r="H99" t="s">
         <v>47</v>
       </c>
       <c r="J99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>48</v>
@@ -3581,16 +3526,16 @@
         <v>18</v>
       </c>
       <c r="E100">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G100">
-        <v>125340</v>
+        <v>121690</v>
       </c>
       <c r="H100" t="s">
         <v>47</v>
       </c>
       <c r="J100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>48</v>
@@ -3613,16 +3558,16 @@
         <v>18</v>
       </c>
       <c r="E101">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G101">
-        <v>113760</v>
+        <v>125340</v>
       </c>
       <c r="H101" t="s">
         <v>47</v>
       </c>
       <c r="J101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>48</v>
@@ -3645,16 +3590,16 @@
         <v>18</v>
       </c>
       <c r="E102">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G102">
-        <v>112920</v>
+        <v>113760</v>
       </c>
       <c r="H102" t="s">
         <v>47</v>
       </c>
       <c r="J102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>48</v>
@@ -3677,16 +3622,16 @@
         <v>18</v>
       </c>
       <c r="E103">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G103">
-        <v>120240</v>
+        <v>112920</v>
       </c>
       <c r="H103" t="s">
         <v>47</v>
       </c>
       <c r="J103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>48</v>
@@ -3709,16 +3654,16 @@
         <v>18</v>
       </c>
       <c r="E104">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G104">
-        <v>125370</v>
+        <v>120240</v>
       </c>
       <c r="H104" t="s">
         <v>47</v>
       </c>
       <c r="J104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>48</v>
@@ -3741,16 +3686,16 @@
         <v>18</v>
       </c>
       <c r="E105">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G105">
-        <v>113580</v>
+        <v>125370</v>
       </c>
       <c r="H105" t="s">
         <v>47</v>
       </c>
       <c r="J105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>48</v>
@@ -3773,16 +3718,16 @@
         <v>18</v>
       </c>
       <c r="E106">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G106">
-        <v>107550</v>
+        <v>113580</v>
       </c>
       <c r="H106" t="s">
         <v>47</v>
       </c>
       <c r="J106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>48</v>
@@ -3805,16 +3750,16 @@
         <v>18</v>
       </c>
       <c r="E107">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G107">
-        <v>102710</v>
+        <v>107550</v>
       </c>
       <c r="H107" t="s">
         <v>47</v>
       </c>
       <c r="J107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>48</v>
@@ -3837,16 +3782,16 @@
         <v>18</v>
       </c>
       <c r="E108">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G108">
-        <v>122520</v>
+        <v>102710</v>
       </c>
       <c r="H108" t="s">
         <v>47</v>
       </c>
       <c r="J108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>48</v>
@@ -3869,16 +3814,16 @@
         <v>18</v>
       </c>
       <c r="E109">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G109">
-        <v>122750</v>
+        <v>122520</v>
       </c>
       <c r="H109" t="s">
         <v>47</v>
       </c>
       <c r="J109" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>48</v>
@@ -3901,16 +3846,16 @@
         <v>18</v>
       </c>
       <c r="E110">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G110">
-        <v>131390</v>
+        <v>122750</v>
       </c>
       <c r="H110" t="s">
         <v>47</v>
       </c>
       <c r="J110" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>48</v>
@@ -3933,16 +3878,16 @@
         <v>18</v>
       </c>
       <c r="E111">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G111">
-        <v>111670</v>
+        <v>131390</v>
       </c>
       <c r="H111" t="s">
         <v>47</v>
       </c>
       <c r="J111" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>48</v>
@@ -3965,16 +3910,16 @@
         <v>18</v>
       </c>
       <c r="E112">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G112">
-        <v>106220</v>
+        <v>111670</v>
       </c>
       <c r="H112" t="s">
         <v>47</v>
       </c>
       <c r="J112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>48</v>
@@ -3991,25 +3936,28 @@
         <v>41</v>
       </c>
       <c r="C113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D113" t="s">
         <v>18</v>
       </c>
       <c r="E113">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>106220</v>
       </c>
       <c r="H113" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J113" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="L113" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -4026,7 +3974,7 @@
         <v>18</v>
       </c>
       <c r="E114">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -4034,6 +3982,12 @@
       <c r="H114" t="s">
         <v>43</v>
       </c>
+      <c r="J114" t="s">
+        <v>110</v>
+      </c>
+      <c r="L114" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
@@ -4049,7 +4003,7 @@
         <v>18</v>
       </c>
       <c r="E115">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4072,7 +4026,7 @@
         <v>18</v>
       </c>
       <c r="E116">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4095,7 +4049,7 @@
         <v>18</v>
       </c>
       <c r="E117">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4118,7 +4072,7 @@
         <v>18</v>
       </c>
       <c r="E118">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4141,7 +4095,7 @@
         <v>18</v>
       </c>
       <c r="E119">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4164,7 +4118,7 @@
         <v>18</v>
       </c>
       <c r="E120">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4187,7 +4141,7 @@
         <v>18</v>
       </c>
       <c r="E121">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4210,7 +4164,7 @@
         <v>18</v>
       </c>
       <c r="E122">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4233,7 +4187,7 @@
         <v>18</v>
       </c>
       <c r="E123">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4256,7 +4210,7 @@
         <v>18</v>
       </c>
       <c r="E124">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4279,7 +4233,7 @@
         <v>18</v>
       </c>
       <c r="E125">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4302,7 +4256,7 @@
         <v>18</v>
       </c>
       <c r="E126">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4325,7 +4279,7 @@
         <v>18</v>
       </c>
       <c r="E127">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4348,7 +4302,7 @@
         <v>18</v>
       </c>
       <c r="E128">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4371,7 +4325,7 @@
         <v>18</v>
       </c>
       <c r="E129">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4394,7 +4348,7 @@
         <v>18</v>
       </c>
       <c r="E130">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4417,7 +4371,7 @@
         <v>18</v>
       </c>
       <c r="E131">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4440,21 +4394,14 @@
         <v>18</v>
       </c>
       <c r="E132">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G132">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="H132" t="s">
         <v>43</v>
       </c>
-      <c r="J132" t="s">
-        <v>110</v>
-      </c>
-      <c r="K132" s="2"/>
-      <c r="L132" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
@@ -4470,10 +4417,10 @@
         <v>18</v>
       </c>
       <c r="E133">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G133">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="H133" t="s">
         <v>43</v>
@@ -4500,10 +4447,10 @@
         <v>18</v>
       </c>
       <c r="E134">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G134">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="H134" t="s">
         <v>43</v>
@@ -4530,10 +4477,10 @@
         <v>18</v>
       </c>
       <c r="E135">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H135" t="s">
         <v>43</v>
@@ -4560,7 +4507,7 @@
         <v>18</v>
       </c>
       <c r="E136">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4568,6 +4515,13 @@
       <c r="H136" t="s">
         <v>43</v>
       </c>
+      <c r="J136" t="s">
+        <v>110</v>
+      </c>
+      <c r="K136" s="2"/>
+      <c r="L136" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
@@ -4583,7 +4537,7 @@
         <v>18</v>
       </c>
       <c r="E137">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -4606,21 +4560,14 @@
         <v>18</v>
       </c>
       <c r="E138">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G138">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="H138" t="s">
         <v>43</v>
       </c>
-      <c r="J138" t="s">
-        <v>110</v>
-      </c>
-      <c r="K138" s="2"/>
-      <c r="L138" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
@@ -4636,14 +4583,21 @@
         <v>18</v>
       </c>
       <c r="E139">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="H139" t="s">
         <v>43</v>
       </c>
+      <c r="J139" t="s">
+        <v>110</v>
+      </c>
+      <c r="K139" s="2"/>
+      <c r="L139" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
@@ -4659,7 +4613,7 @@
         <v>18</v>
       </c>
       <c r="E140">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -4682,7 +4636,7 @@
         <v>18</v>
       </c>
       <c r="E141">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -4705,21 +4659,14 @@
         <v>18</v>
       </c>
       <c r="E142">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G142">
-        <v>1213</v>
+        <v>0</v>
       </c>
       <c r="H142" t="s">
         <v>43</v>
       </c>
-      <c r="J142" t="s">
-        <v>110</v>
-      </c>
-      <c r="K142" s="2"/>
-      <c r="L142" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
@@ -4729,13 +4676,26 @@
         <v>41</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D143" t="s">
         <v>18</v>
       </c>
       <c r="E143">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G143">
+        <v>1213</v>
+      </c>
+      <c r="H143" t="s">
+        <v>43</v>
+      </c>
+      <c r="J143" t="s">
+        <v>110</v>
+      </c>
+      <c r="K143" s="2"/>
+      <c r="L143" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -4752,7 +4712,7 @@
         <v>18</v>
       </c>
       <c r="E144">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -4769,7 +4729,7 @@
         <v>18</v>
       </c>
       <c r="E145">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -4786,7 +4746,7 @@
         <v>18</v>
       </c>
       <c r="E146">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -4803,7 +4763,7 @@
         <v>18</v>
       </c>
       <c r="E147">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -4820,7 +4780,7 @@
         <v>18</v>
       </c>
       <c r="E148">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -4837,7 +4797,7 @@
         <v>18</v>
       </c>
       <c r="E149">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -4854,7 +4814,7 @@
         <v>18</v>
       </c>
       <c r="E150">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -4871,7 +4831,7 @@
         <v>18</v>
       </c>
       <c r="E151">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -4888,7 +4848,7 @@
         <v>18</v>
       </c>
       <c r="E152">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -4905,7 +4865,7 @@
         <v>18</v>
       </c>
       <c r="E153">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -4922,7 +4882,7 @@
         <v>18</v>
       </c>
       <c r="E154">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -4939,7 +4899,7 @@
         <v>18</v>
       </c>
       <c r="E155">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -4956,7 +4916,7 @@
         <v>18</v>
       </c>
       <c r="E156">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -4973,7 +4933,7 @@
         <v>18</v>
       </c>
       <c r="E157">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -4990,7 +4950,7 @@
         <v>18</v>
       </c>
       <c r="E158">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -5007,7 +4967,7 @@
         <v>18</v>
       </c>
       <c r="E159">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -5024,7 +4984,7 @@
         <v>18</v>
       </c>
       <c r="E160">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -5041,7 +5001,7 @@
         <v>18</v>
       </c>
       <c r="E161">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -5058,7 +5018,7 @@
         <v>18</v>
       </c>
       <c r="E162">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -5075,7 +5035,7 @@
         <v>18</v>
       </c>
       <c r="E163">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -5092,7 +5052,7 @@
         <v>18</v>
       </c>
       <c r="E164">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -5109,7 +5069,7 @@
         <v>18</v>
       </c>
       <c r="E165">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -5126,16 +5086,7 @@
         <v>18</v>
       </c>
       <c r="E166">
-        <v>2013</v>
-      </c>
-      <c r="G166">
-        <v>3.2</v>
-      </c>
-      <c r="H166" t="s">
-        <v>120</v>
-      </c>
-      <c r="I166" t="s">
-        <v>117</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -5152,7 +5103,16 @@
         <v>18</v>
       </c>
       <c r="E167">
-        <v>2014</v>
+        <v>2013</v>
+      </c>
+      <c r="G167">
+        <v>3.2</v>
+      </c>
+      <c r="H167" t="s">
+        <v>120</v>
+      </c>
+      <c r="I167" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -5169,7 +5129,7 @@
         <v>18</v>
       </c>
       <c r="E168">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -5186,7 +5146,7 @@
         <v>18</v>
       </c>
       <c r="E169">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -5203,7 +5163,7 @@
         <v>18</v>
       </c>
       <c r="E170">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -5220,7 +5180,7 @@
         <v>18</v>
       </c>
       <c r="E171">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -5237,7 +5197,7 @@
         <v>18</v>
       </c>
       <c r="E172">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -5248,19 +5208,13 @@
         <v>41</v>
       </c>
       <c r="C173" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D173" t="s">
         <v>18</v>
       </c>
       <c r="E173">
-        <v>1990</v>
-      </c>
-      <c r="G173">
-        <v>37.762500000000003</v>
-      </c>
-      <c r="H173" t="s">
-        <v>121</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -5277,13 +5231,13 @@
         <v>18</v>
       </c>
       <c r="E174">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G174">
         <v>37.762500000000003</v>
       </c>
       <c r="H174" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -5300,13 +5254,13 @@
         <v>18</v>
       </c>
       <c r="E175">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G175">
-        <v>39.137500000000003</v>
+        <v>37.762500000000003</v>
       </c>
       <c r="H175" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -5323,13 +5277,13 @@
         <v>18</v>
       </c>
       <c r="E176">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G176">
-        <v>38.424999999999997</v>
+        <v>39.137500000000003</v>
       </c>
       <c r="H176" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -5346,13 +5300,13 @@
         <v>18</v>
       </c>
       <c r="E177">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G177">
-        <v>38.024999999999999</v>
+        <v>38.424999999999997</v>
       </c>
       <c r="H177" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -5369,13 +5323,13 @@
         <v>18</v>
       </c>
       <c r="E178">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G178">
-        <v>37.9375</v>
+        <v>38.024999999999999</v>
       </c>
       <c r="H178" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -5392,13 +5346,13 @@
         <v>18</v>
       </c>
       <c r="E179">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G179">
-        <v>37.6</v>
+        <v>37.9375</v>
       </c>
       <c r="H179" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -5415,13 +5369,13 @@
         <v>18</v>
       </c>
       <c r="E180">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G180">
-        <v>36.975000000000001</v>
+        <v>37.6</v>
       </c>
       <c r="H180" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -5438,13 +5392,13 @@
         <v>18</v>
       </c>
       <c r="E181">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G181">
-        <v>36.274999999999999</v>
+        <v>36.975000000000001</v>
       </c>
       <c r="H181" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -5461,13 +5415,13 @@
         <v>18</v>
       </c>
       <c r="E182">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G182">
-        <v>34.787500000000001</v>
+        <v>36.274999999999999</v>
       </c>
       <c r="H182" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -5484,13 +5438,13 @@
         <v>18</v>
       </c>
       <c r="E183">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G183">
-        <v>33.200000000000003</v>
+        <v>34.787500000000001</v>
       </c>
       <c r="H183" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -5507,13 +5461,13 @@
         <v>18</v>
       </c>
       <c r="E184">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G184">
-        <v>35.299999999999997</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="H184" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -5530,13 +5484,13 @@
         <v>18</v>
       </c>
       <c r="E185">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G185">
-        <v>32.824310609999998</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="H185" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -5553,13 +5507,13 @@
         <v>18</v>
       </c>
       <c r="E186">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G186">
-        <v>33.427702089999997</v>
+        <v>32.824310609999998</v>
       </c>
       <c r="H186" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -5576,13 +5530,13 @@
         <v>18</v>
       </c>
       <c r="E187">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G187">
-        <v>35.025917569999997</v>
+        <v>33.427702089999997</v>
       </c>
       <c r="H187" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -5599,13 +5553,13 @@
         <v>18</v>
       </c>
       <c r="E188">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G188">
-        <v>47.12493869</v>
+        <v>35.025917569999997</v>
       </c>
       <c r="H188" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -5622,13 +5576,13 @@
         <v>18</v>
       </c>
       <c r="E189">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G189">
-        <v>59.819774850000002</v>
+        <v>47.12493869</v>
       </c>
       <c r="H189" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -5645,13 +5599,13 @@
         <v>18</v>
       </c>
       <c r="E190">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G190">
-        <v>59.752091729999997</v>
+        <v>59.819774850000002</v>
       </c>
       <c r="H190" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -5668,13 +5622,13 @@
         <v>18</v>
       </c>
       <c r="E191">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G191">
-        <v>66.958622610000006</v>
+        <v>59.752091729999997</v>
       </c>
       <c r="H191" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -5691,13 +5645,13 @@
         <v>18</v>
       </c>
       <c r="E192">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G192">
-        <v>61.050466499999999</v>
+        <v>66.958622610000006</v>
       </c>
       <c r="H192" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -5714,13 +5668,13 @@
         <v>18</v>
       </c>
       <c r="E193">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G193">
-        <v>56.049325670000002</v>
+        <v>61.050466499999999</v>
       </c>
       <c r="H193" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -5737,13 +5691,13 @@
         <v>18</v>
       </c>
       <c r="E194">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G194">
-        <v>56.165710709999999</v>
+        <v>56.049325670000002</v>
       </c>
       <c r="H194" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -5760,13 +5714,13 @@
         <v>18</v>
       </c>
       <c r="E195">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G195">
-        <v>60.639359579999997</v>
+        <v>56.165710709999999</v>
       </c>
       <c r="H195" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -5783,13 +5737,13 @@
         <v>18</v>
       </c>
       <c r="E196">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G196">
-        <v>57.100518540000003</v>
+        <v>60.639359579999997</v>
       </c>
       <c r="H196" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -5806,13 +5760,13 @@
         <v>18</v>
       </c>
       <c r="E197">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G197">
-        <v>49.003774999999997</v>
+        <v>57.100518540000003</v>
       </c>
       <c r="H197" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -5829,13 +5783,13 @@
         <v>18</v>
       </c>
       <c r="E198">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G198">
-        <v>42.610874199999998</v>
+        <v>49.003774999999997</v>
       </c>
       <c r="H198" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -5852,13 +5806,13 @@
         <v>18</v>
       </c>
       <c r="E199">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G199">
-        <v>40.431049049999999</v>
+        <v>42.610874199999998</v>
       </c>
       <c r="H199" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -5875,13 +5829,13 @@
         <v>18</v>
       </c>
       <c r="E200">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G200">
-        <v>31.887499999999999</v>
+        <v>40.431049049999999</v>
       </c>
       <c r="H200" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -5898,13 +5852,13 @@
         <v>18</v>
       </c>
       <c r="E201">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G201">
-        <v>32.875</v>
+        <v>31.887499999999999</v>
       </c>
       <c r="H201" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -5921,13 +5875,13 @@
         <v>18</v>
       </c>
       <c r="E202">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G202">
-        <v>37.75</v>
+        <v>32.875</v>
       </c>
       <c r="H202" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -5938,13 +5892,19 @@
         <v>41</v>
       </c>
       <c r="C203" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D203" t="s">
         <v>18</v>
       </c>
       <c r="E203">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G203">
+        <v>37.75</v>
+      </c>
+      <c r="H203" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -5961,7 +5921,7 @@
         <v>18</v>
       </c>
       <c r="E204">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -5978,7 +5938,7 @@
         <v>18</v>
       </c>
       <c r="E205">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -5995,7 +5955,7 @@
         <v>18</v>
       </c>
       <c r="E206">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -6012,7 +5972,7 @@
         <v>18</v>
       </c>
       <c r="E207">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -6029,7 +5989,7 @@
         <v>18</v>
       </c>
       <c r="E208">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -6046,16 +6006,7 @@
         <v>18</v>
       </c>
       <c r="E209">
-        <v>1996</v>
-      </c>
-      <c r="G209">
-        <v>300</v>
-      </c>
-      <c r="H209" t="s">
-        <v>151</v>
-      </c>
-      <c r="I209" t="s">
-        <v>117</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -6072,7 +6023,16 @@
         <v>18</v>
       </c>
       <c r="E210">
-        <v>1997</v>
+        <v>1996</v>
+      </c>
+      <c r="G210">
+        <v>300</v>
+      </c>
+      <c r="H210" t="s">
+        <v>151</v>
+      </c>
+      <c r="I210" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -6089,7 +6049,7 @@
         <v>18</v>
       </c>
       <c r="E211">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -6106,7 +6066,7 @@
         <v>18</v>
       </c>
       <c r="E212">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -6123,7 +6083,7 @@
         <v>18</v>
       </c>
       <c r="E213">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -6140,7 +6100,7 @@
         <v>18</v>
       </c>
       <c r="E214">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -6157,7 +6117,7 @@
         <v>18</v>
       </c>
       <c r="E215">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -6174,7 +6134,7 @@
         <v>18</v>
       </c>
       <c r="E216">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
@@ -6191,7 +6151,7 @@
         <v>18</v>
       </c>
       <c r="E217">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -6208,7 +6168,7 @@
         <v>18</v>
       </c>
       <c r="E218">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -6225,7 +6185,7 @@
         <v>18</v>
       </c>
       <c r="E219">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -6242,7 +6202,7 @@
         <v>18</v>
       </c>
       <c r="E220">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -6259,7 +6219,7 @@
         <v>18</v>
       </c>
       <c r="E221">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -6276,7 +6236,7 @@
         <v>18</v>
       </c>
       <c r="E222">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -6293,7 +6253,7 @@
         <v>18</v>
       </c>
       <c r="E223">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -6310,7 +6270,7 @@
         <v>18</v>
       </c>
       <c r="E224">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -6327,7 +6287,7 @@
         <v>18</v>
       </c>
       <c r="E225">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -6344,7 +6304,7 @@
         <v>18</v>
       </c>
       <c r="E226">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
@@ -6361,7 +6321,7 @@
         <v>18</v>
       </c>
       <c r="E227">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -6378,7 +6338,7 @@
         <v>18</v>
       </c>
       <c r="E228">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
@@ -6395,7 +6355,7 @@
         <v>18</v>
       </c>
       <c r="E229">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -6412,7 +6372,7 @@
         <v>18</v>
       </c>
       <c r="E230">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
@@ -6429,7 +6389,7 @@
         <v>18</v>
       </c>
       <c r="E231">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -6446,7 +6406,7 @@
         <v>18</v>
       </c>
       <c r="E232">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
@@ -6457,19 +6417,13 @@
         <v>41</v>
       </c>
       <c r="C233" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D233" t="s">
         <v>18</v>
       </c>
       <c r="E233">
-        <v>1990</v>
-      </c>
-      <c r="G233">
-        <v>1</v>
-      </c>
-      <c r="I233" t="s">
-        <v>117</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
@@ -6486,7 +6440,7 @@
         <v>18</v>
       </c>
       <c r="E234">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -6509,7 +6463,7 @@
         <v>18</v>
       </c>
       <c r="E235">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -6532,7 +6486,7 @@
         <v>18</v>
       </c>
       <c r="E236">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -6555,7 +6509,7 @@
         <v>18</v>
       </c>
       <c r="E237">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -6578,7 +6532,7 @@
         <v>18</v>
       </c>
       <c r="E238">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -6601,7 +6555,7 @@
         <v>18</v>
       </c>
       <c r="E239">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -6624,7 +6578,7 @@
         <v>18</v>
       </c>
       <c r="E240">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -6647,7 +6601,7 @@
         <v>18</v>
       </c>
       <c r="E241">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -6670,7 +6624,7 @@
         <v>18</v>
       </c>
       <c r="E242">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -6693,7 +6647,7 @@
         <v>18</v>
       </c>
       <c r="E243">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -6716,7 +6670,7 @@
         <v>18</v>
       </c>
       <c r="E244">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -6739,7 +6693,7 @@
         <v>18</v>
       </c>
       <c r="E245">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -6762,7 +6716,7 @@
         <v>18</v>
       </c>
       <c r="E246">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -6785,7 +6739,7 @@
         <v>18</v>
       </c>
       <c r="E247">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G247">
         <v>1</v>
@@ -6808,7 +6762,7 @@
         <v>18</v>
       </c>
       <c r="E248">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -6831,7 +6785,7 @@
         <v>18</v>
       </c>
       <c r="E249">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G249">
         <v>1</v>
@@ -6854,7 +6808,7 @@
         <v>18</v>
       </c>
       <c r="E250">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -6877,7 +6831,7 @@
         <v>18</v>
       </c>
       <c r="E251">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -6900,7 +6854,7 @@
         <v>18</v>
       </c>
       <c r="E252">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G252">
         <v>1</v>
@@ -6923,7 +6877,7 @@
         <v>18</v>
       </c>
       <c r="E253">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G253">
         <v>1</v>
@@ -6946,7 +6900,7 @@
         <v>18</v>
       </c>
       <c r="E254">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -6969,7 +6923,7 @@
         <v>18</v>
       </c>
       <c r="E255">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -6992,7 +6946,7 @@
         <v>18</v>
       </c>
       <c r="E256">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -7015,7 +6969,7 @@
         <v>18</v>
       </c>
       <c r="E257">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -7038,7 +6992,7 @@
         <v>18</v>
       </c>
       <c r="E258">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -7061,7 +7015,7 @@
         <v>18</v>
       </c>
       <c r="E259">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -7084,7 +7038,7 @@
         <v>18</v>
       </c>
       <c r="E260">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -7107,7 +7061,7 @@
         <v>18</v>
       </c>
       <c r="E261">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -7130,7 +7084,7 @@
         <v>18</v>
       </c>
       <c r="E262">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -7147,16 +7101,16 @@
         <v>41</v>
       </c>
       <c r="C263" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D263" t="s">
         <v>18</v>
       </c>
       <c r="E263">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263" t="s">
         <v>117</v>
@@ -7176,7 +7130,7 @@
         <v>18</v>
       </c>
       <c r="E264">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G264">
         <v>0</v>
@@ -7199,7 +7153,7 @@
         <v>18</v>
       </c>
       <c r="E265">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -7222,7 +7176,7 @@
         <v>18</v>
       </c>
       <c r="E266">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -7245,7 +7199,7 @@
         <v>18</v>
       </c>
       <c r="E267">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -7268,7 +7222,7 @@
         <v>18</v>
       </c>
       <c r="E268">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -7291,7 +7245,7 @@
         <v>18</v>
       </c>
       <c r="E269">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -7314,7 +7268,7 @@
         <v>18</v>
       </c>
       <c r="E270">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -7337,7 +7291,7 @@
         <v>18</v>
       </c>
       <c r="E271">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -7360,7 +7314,7 @@
         <v>18</v>
       </c>
       <c r="E272">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -7383,7 +7337,7 @@
         <v>18</v>
       </c>
       <c r="E273">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -7406,7 +7360,7 @@
         <v>18</v>
       </c>
       <c r="E274">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -7429,7 +7383,7 @@
         <v>18</v>
       </c>
       <c r="E275">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -7452,7 +7406,7 @@
         <v>18</v>
       </c>
       <c r="E276">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G276">
         <v>0</v>
@@ -7475,7 +7429,7 @@
         <v>18</v>
       </c>
       <c r="E277">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G277">
         <v>0</v>
@@ -7498,7 +7452,7 @@
         <v>18</v>
       </c>
       <c r="E278">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G278">
         <v>0</v>
@@ -7521,7 +7475,7 @@
         <v>18</v>
       </c>
       <c r="E279">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G279">
         <v>0</v>
@@ -7544,7 +7498,7 @@
         <v>18</v>
       </c>
       <c r="E280">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -7567,7 +7521,7 @@
         <v>18</v>
       </c>
       <c r="E281">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -7590,7 +7544,7 @@
         <v>18</v>
       </c>
       <c r="E282">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G282">
         <v>0</v>
@@ -7613,7 +7567,7 @@
         <v>18</v>
       </c>
       <c r="E283">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -7636,7 +7590,7 @@
         <v>18</v>
       </c>
       <c r="E284">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G284">
         <v>0</v>
@@ -7659,7 +7613,7 @@
         <v>18</v>
       </c>
       <c r="E285">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -7682,7 +7636,7 @@
         <v>18</v>
       </c>
       <c r="E286">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -7705,7 +7659,7 @@
         <v>18</v>
       </c>
       <c r="E287">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -7728,7 +7682,7 @@
         <v>18</v>
       </c>
       <c r="E288">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G288">
         <v>0</v>
@@ -7751,7 +7705,7 @@
         <v>18</v>
       </c>
       <c r="E289">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G289">
         <v>0</v>
@@ -7774,7 +7728,7 @@
         <v>18</v>
       </c>
       <c r="E290">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -7797,7 +7751,7 @@
         <v>18</v>
       </c>
       <c r="E291">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -7820,7 +7774,7 @@
         <v>18</v>
       </c>
       <c r="E292">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -7837,22 +7791,19 @@
         <v>41</v>
       </c>
       <c r="C293" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D293" t="s">
         <v>18</v>
       </c>
       <c r="E293">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G293">
-        <v>37.450000000000003</v>
-      </c>
-      <c r="H293" t="s">
-        <v>121</v>
-      </c>
-      <c r="L293" t="s">
-        <v>153</v>
+        <v>0</v>
+      </c>
+      <c r="I293" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
@@ -7869,13 +7820,13 @@
         <v>18</v>
       </c>
       <c r="E294">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G294">
         <v>37.450000000000003</v>
       </c>
       <c r="H294" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L294" t="s">
         <v>153</v>
@@ -7895,13 +7846,13 @@
         <v>18</v>
       </c>
       <c r="E295">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G295">
-        <v>38.85</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="H295" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L295" t="s">
         <v>153</v>
@@ -7921,13 +7872,13 @@
         <v>18</v>
       </c>
       <c r="E296">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G296">
-        <v>37.950000000000003</v>
+        <v>38.85</v>
       </c>
       <c r="H296" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L296" t="s">
         <v>153</v>
@@ -7947,13 +7898,13 @@
         <v>18</v>
       </c>
       <c r="E297">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G297">
-        <v>37.4</v>
+        <v>37.950000000000003</v>
       </c>
       <c r="H297" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L297" t="s">
         <v>153</v>
@@ -7973,13 +7924,13 @@
         <v>18</v>
       </c>
       <c r="E298">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G298">
-        <v>36.049999999999997</v>
+        <v>37.4</v>
       </c>
       <c r="H298" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L298" t="s">
         <v>153</v>
@@ -7999,13 +7950,13 @@
         <v>18</v>
       </c>
       <c r="E299">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G299">
-        <v>34.450000000000003</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="H299" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L299" t="s">
         <v>153</v>
@@ -8025,13 +7976,13 @@
         <v>18</v>
       </c>
       <c r="E300">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G300">
-        <v>33.950000000000003</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="H300" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L300" t="s">
         <v>153</v>
@@ -8051,13 +8002,13 @@
         <v>18</v>
       </c>
       <c r="E301">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G301">
-        <v>33.15</v>
+        <v>33.950000000000003</v>
       </c>
       <c r="H301" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L301" t="s">
         <v>153</v>
@@ -8077,13 +8028,13 @@
         <v>18</v>
       </c>
       <c r="E302">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G302">
-        <v>31.8</v>
+        <v>33.15</v>
       </c>
       <c r="H302" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L302" t="s">
         <v>153</v>
@@ -8103,13 +8054,13 @@
         <v>18</v>
       </c>
       <c r="E303">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G303">
-        <v>31.25</v>
+        <v>31.8</v>
       </c>
       <c r="H303" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L303" t="s">
         <v>153</v>
@@ -8129,13 +8080,13 @@
         <v>18</v>
       </c>
       <c r="E304">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G304">
-        <v>32.200000000000003</v>
+        <v>31.25</v>
       </c>
       <c r="H304" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L304" t="s">
         <v>153</v>
@@ -8155,13 +8106,13 @@
         <v>18</v>
       </c>
       <c r="E305">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G305">
-        <v>31</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="H305" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="L305" t="s">
         <v>153</v>
@@ -8181,22 +8132,16 @@
         <v>18</v>
       </c>
       <c r="E306">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G306">
-        <v>32.4</v>
+        <v>31</v>
       </c>
       <c r="H306" t="s">
-        <v>155</v>
-      </c>
-      <c r="J306" t="s">
-        <v>156</v>
-      </c>
-      <c r="K306" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L306" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
@@ -8213,13 +8158,13 @@
         <v>18</v>
       </c>
       <c r="E307">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G307">
-        <v>31.7</v>
+        <v>32.4</v>
       </c>
       <c r="H307" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J307" t="s">
         <v>156</v>
@@ -8245,13 +8190,13 @@
         <v>18</v>
       </c>
       <c r="E308">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G308">
-        <v>34.1</v>
+        <v>31.7</v>
       </c>
       <c r="H308" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J308" t="s">
         <v>156</v>
@@ -8277,13 +8222,13 @@
         <v>18</v>
       </c>
       <c r="E309">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G309">
-        <v>38.299999999999997</v>
+        <v>34.1</v>
       </c>
       <c r="H309" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J309" t="s">
         <v>156</v>
@@ -8309,13 +8254,13 @@
         <v>18</v>
       </c>
       <c r="E310">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G310">
-        <v>41.85</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="H310" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J310" t="s">
         <v>156</v>
@@ -8341,13 +8286,13 @@
         <v>18</v>
       </c>
       <c r="E311">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G311">
-        <v>37.1</v>
+        <v>41.85</v>
       </c>
       <c r="H311" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J311" t="s">
         <v>156</v>
@@ -8373,13 +8318,13 @@
         <v>18</v>
       </c>
       <c r="E312">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G312">
-        <v>39.549999999999997</v>
+        <v>37.1</v>
       </c>
       <c r="H312" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J312" t="s">
         <v>156</v>
@@ -8405,13 +8350,13 @@
         <v>18</v>
       </c>
       <c r="E313">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G313">
-        <v>38.5</v>
+        <v>39.549999999999997</v>
       </c>
       <c r="H313" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J313" t="s">
         <v>156</v>
@@ -8437,13 +8382,13 @@
         <v>18</v>
       </c>
       <c r="E314">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G314">
-        <v>40.549999999999997</v>
+        <v>38.5</v>
       </c>
       <c r="H314" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J314" t="s">
         <v>156</v>
@@ -8469,13 +8414,13 @@
         <v>18</v>
       </c>
       <c r="E315">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G315">
-        <v>42.3</v>
+        <v>40.549999999999997</v>
       </c>
       <c r="H315" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J315" t="s">
         <v>156</v>
@@ -8501,13 +8446,13 @@
         <v>18</v>
       </c>
       <c r="E316">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G316">
-        <v>40.65</v>
+        <v>42.3</v>
       </c>
       <c r="H316" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J316" t="s">
         <v>156</v>
@@ -8533,13 +8478,13 @@
         <v>18</v>
       </c>
       <c r="E317">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G317">
-        <v>38.6</v>
+        <v>40.65</v>
       </c>
       <c r="H317" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J317" t="s">
         <v>156</v>
@@ -8565,13 +8510,13 @@
         <v>18</v>
       </c>
       <c r="E318">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G318">
-        <v>36.9</v>
+        <v>38.6</v>
       </c>
       <c r="H318" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="J318" t="s">
         <v>156</v>
@@ -8597,13 +8542,13 @@
         <v>18</v>
       </c>
       <c r="E319">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G319">
-        <v>34.5</v>
+        <v>36.9</v>
       </c>
       <c r="H319" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="J319" t="s">
         <v>156</v>
@@ -8629,13 +8574,13 @@
         <v>18</v>
       </c>
       <c r="E320">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G320">
-        <v>33.1</v>
+        <v>34.5</v>
       </c>
       <c r="H320" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="J320" t="s">
         <v>156</v>
@@ -8661,13 +8606,13 @@
         <v>18</v>
       </c>
       <c r="E321">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G321">
-        <v>33.65</v>
+        <v>33.1</v>
       </c>
       <c r="H321" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J321" t="s">
         <v>156</v>
@@ -8693,13 +8638,13 @@
         <v>18</v>
       </c>
       <c r="E322">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G322">
-        <v>37.299999999999997</v>
+        <v>33.65</v>
       </c>
       <c r="H322" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J322" t="s">
         <v>156</v>
@@ -8711,20 +8656,52 @@
         <v>158</v>
       </c>
     </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>16</v>
+      </c>
+      <c r="B323" t="s">
+        <v>41</v>
+      </c>
+      <c r="C323" t="s">
+        <v>40</v>
+      </c>
+      <c r="D323" t="s">
+        <v>18</v>
+      </c>
+      <c r="E323">
+        <v>2019</v>
+      </c>
+      <c r="G323">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="H323" t="s">
+        <v>150</v>
+      </c>
+      <c r="J323" t="s">
+        <v>156</v>
+      </c>
+      <c r="K323" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L323" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:L521" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L522" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K42" r:id="rId1" xr:uid="{9280243E-6949-8941-9BA5-0D72F7E0C700}"/>
-    <hyperlink ref="K43" r:id="rId2" xr:uid="{95F27C1E-4658-BE4A-A2B3-46F76ACD4F74}"/>
-    <hyperlink ref="K44" r:id="rId3" xr:uid="{AFAD837F-9233-E540-8A86-E8C50A7683A6}"/>
-    <hyperlink ref="K45" r:id="rId4" xr:uid="{69024611-6EE1-D642-B375-225612CAAEEE}"/>
-    <hyperlink ref="K48" r:id="rId5" xr:uid="{DBF5AFD9-F29D-5C4B-85DD-A886A1AB63C8}"/>
-    <hyperlink ref="K52" r:id="rId6" xr:uid="{DA5C67C9-4C59-AE4B-BEE9-F504118ECC57}"/>
-    <hyperlink ref="K53" r:id="rId7" xr:uid="{B6037CA9-473C-084B-B6AA-934620BE2105}"/>
-    <hyperlink ref="K54:K112" r:id="rId8" display="https://www.bfe.admin.ch/bfe/de/home/versorgung/statistik-und-geodaten/energiestatistiken/gesamtenergiestatistik.html/" xr:uid="{EB6A06A8-3AE4-2641-9CC0-7161E8D21A52}"/>
-    <hyperlink ref="K306" r:id="rId9" xr:uid="{ECE01210-F162-8640-B72C-72CDC6F4DD33}"/>
-    <hyperlink ref="K307:K322" r:id="rId10" display="https://ec.europa.eu/eurostat/web/main/data/database" xr:uid="{B4654278-E585-5544-84B8-E8BAFEE330AA}"/>
+    <hyperlink ref="K43" r:id="rId1" xr:uid="{9280243E-6949-8941-9BA5-0D72F7E0C700}"/>
+    <hyperlink ref="K44" r:id="rId2" xr:uid="{95F27C1E-4658-BE4A-A2B3-46F76ACD4F74}"/>
+    <hyperlink ref="K45" r:id="rId3" xr:uid="{AFAD837F-9233-E540-8A86-E8C50A7683A6}"/>
+    <hyperlink ref="K46" r:id="rId4" xr:uid="{69024611-6EE1-D642-B375-225612CAAEEE}"/>
+    <hyperlink ref="K49" r:id="rId5" xr:uid="{DBF5AFD9-F29D-5C4B-85DD-A886A1AB63C8}"/>
+    <hyperlink ref="K53" r:id="rId6" xr:uid="{DA5C67C9-4C59-AE4B-BEE9-F504118ECC57}"/>
+    <hyperlink ref="K54" r:id="rId7" xr:uid="{B6037CA9-473C-084B-B6AA-934620BE2105}"/>
+    <hyperlink ref="K55:K113" r:id="rId8" display="https://www.bfe.admin.ch/bfe/de/home/versorgung/statistik-und-geodaten/energiestatistiken/gesamtenergiestatistik.html/" xr:uid="{EB6A06A8-3AE4-2641-9CC0-7161E8D21A52}"/>
+    <hyperlink ref="K307" r:id="rId9" xr:uid="{ECE01210-F162-8640-B72C-72CDC6F4DD33}"/>
+    <hyperlink ref="K308:K323" r:id="rId10" display="https://ec.europa.eu/eurostat/web/main/data/database" xr:uid="{B4654278-E585-5544-84B8-E8BAFEE330AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
